--- a/MN_covid.xlsx
+++ b/MN_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthj\Documents\pers\MN_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9087D5-1761-4C94-9962-72A9E50C497A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6FC17-3367-4F5E-8F08-2F6010944472}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="20994" windowHeight="11610" activeTab="4" xr2:uid="{955FBE10-6FF1-488B-85CB-533582D6E676}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20994" windowHeight="11610" activeTab="10" xr2:uid="{955FBE10-6FF1-488B-85CB-533582D6E676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="cases" sheetId="3" r:id="rId3"/>
     <sheet name="deaths" sheetId="4" r:id="rId4"/>
     <sheet name="hospitalizations" sheetId="5" r:id="rId5"/>
+    <sheet name="age" sheetId="6" r:id="rId6"/>
+    <sheet name="gender" sheetId="7" r:id="rId7"/>
+    <sheet name="ethnicity" sheetId="8" r:id="rId8"/>
+    <sheet name="exposure" sheetId="9" r:id="rId9"/>
+    <sheet name="county" sheetId="10" r:id="rId10"/>
+    <sheet name="residence" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="164">
   <si>
     <t>Date reported to MDH</t>
   </si>
@@ -86,6 +92,447 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Number of Cases</t>
+  </si>
+  <si>
+    <t>Number of Deaths</t>
+  </si>
+  <si>
+    <t>0-4 years</t>
+  </si>
+  <si>
+    <t>5-9 years</t>
+  </si>
+  <si>
+    <t>10-14 years</t>
+  </si>
+  <si>
+    <t>15-19 years</t>
+  </si>
+  <si>
+    <t>20-24 years</t>
+  </si>
+  <si>
+    <t>25-29 years</t>
+  </si>
+  <si>
+    <t>30-34 years</t>
+  </si>
+  <si>
+    <t>35-39 years</t>
+  </si>
+  <si>
+    <t>40-44 years</t>
+  </si>
+  <si>
+    <t>45-49 years</t>
+  </si>
+  <si>
+    <t>50-54 years</t>
+  </si>
+  <si>
+    <t>55-59 years</t>
+  </si>
+  <si>
+    <t>60-64 years</t>
+  </si>
+  <si>
+    <t>65-69 years</t>
+  </si>
+  <si>
+    <t>70-74 years</t>
+  </si>
+  <si>
+    <t>75-79 years</t>
+  </si>
+  <si>
+    <t>80-84 years</t>
+  </si>
+  <si>
+    <t>85-89 years</t>
+  </si>
+  <si>
+    <t>90-94 years</t>
+  </si>
+  <si>
+    <t>95-99 years</t>
+  </si>
+  <si>
+    <t>100+ years</t>
+  </si>
+  <si>
+    <t>Unknown/missing</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>White, non-Hispanic</t>
+  </si>
+  <si>
+    <t>Black, non-Hispanic</t>
+  </si>
+  <si>
+    <t>Asian, non-Hispanic</t>
+  </si>
+  <si>
+    <t>American Indian/ Alaska Native, non-Hispanic</t>
+  </si>
+  <si>
+    <t>Native Hawaiian/ Pacific Islander, non-Hispanic</t>
+  </si>
+  <si>
+    <t>Multiple races, non-Hispanic</t>
+  </si>
+  <si>
+    <t>Other, non-Hispanic</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Likely Exposure</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Congregate Care Setting (staff, resident, or visitor)</t>
+  </si>
+  <si>
+    <t>Corrections (staff, inmate, or visitor)</t>
+  </si>
+  <si>
+    <t>Homeless/Shelter (staff or resident)</t>
+  </si>
+  <si>
+    <t>Health Care (staff or patient)</t>
+  </si>
+  <si>
+    <t>Community: outbreak outside of congregate living or health care</t>
+  </si>
+  <si>
+    <t>Community: known contact with confirmed case</t>
+  </si>
+  <si>
+    <t>Community: no known contact with confirmed case</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Aitkin</t>
+  </si>
+  <si>
+    <t>Anoka</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Beltrami</t>
+  </si>
+  <si>
+    <t>Benton</t>
+  </si>
+  <si>
+    <t>Big Stone</t>
+  </si>
+  <si>
+    <t>Blue Earth</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Carlton</t>
+  </si>
+  <si>
+    <t>Carver</t>
+  </si>
+  <si>
+    <t>Cass</t>
+  </si>
+  <si>
+    <t>Chippewa</t>
+  </si>
+  <si>
+    <t>Chisago</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Clearwater</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Cottonwood</t>
+  </si>
+  <si>
+    <t>Crow Wing</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Faribault</t>
+  </si>
+  <si>
+    <t>Fillmore</t>
+  </si>
+  <si>
+    <t>Freeborn</t>
+  </si>
+  <si>
+    <t>Goodhue</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Hennepin</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Hubbard</t>
+  </si>
+  <si>
+    <t>Isanti</t>
+  </si>
+  <si>
+    <t>Itasca</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Kanabec</t>
+  </si>
+  <si>
+    <t>Kandiyohi</t>
+  </si>
+  <si>
+    <t>Kittson</t>
+  </si>
+  <si>
+    <t>Koochiching</t>
+  </si>
+  <si>
+    <t>Lac qui Parle</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Lake of the Woods</t>
+  </si>
+  <si>
+    <t>Le Sueur</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Mahnomen</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>McLeod</t>
+  </si>
+  <si>
+    <t>Meeker</t>
+  </si>
+  <si>
+    <t>Mille Lacs</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>Mower</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Nicollet</t>
+  </si>
+  <si>
+    <t>Nobles</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Olmsted</t>
+  </si>
+  <si>
+    <t>Otter Tail</t>
+  </si>
+  <si>
+    <t>Pennington</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>Pipestone</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Pope</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>Red Lake</t>
+  </si>
+  <si>
+    <t>Redwood</t>
+  </si>
+  <si>
+    <t>Renville</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Sherburne</t>
+  </si>
+  <si>
+    <t>Sibley</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Stearns</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Traverse</t>
+  </si>
+  <si>
+    <t>Wabasha</t>
+  </si>
+  <si>
+    <t>Wadena</t>
+  </si>
+  <si>
+    <t>Waseca</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Watonwan</t>
+  </si>
+  <si>
+    <t>Wilkin</t>
+  </si>
+  <si>
+    <t>Winona</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Yellow Medicine</t>
+  </si>
+  <si>
+    <t>Residence Type</t>
+  </si>
+  <si>
+    <t>Private residence</t>
+  </si>
+  <si>
+    <t>Hotel/Motel</t>
+  </si>
+  <si>
+    <t>Long-term care facility/Assisted living (LTCF)</t>
+  </si>
+  <si>
+    <t>Residential behavioral health (RBH)</t>
+  </si>
+  <si>
+    <t>Homeless (sheltered)</t>
+  </si>
+  <si>
+    <t>Homeless (unsheltered)</t>
+  </si>
+  <si>
+    <t>Jail/Prison</t>
+  </si>
+  <si>
+    <t>College/University/Camp Dormitory</t>
+  </si>
+  <si>
+    <t>Work dormitory</t>
   </si>
 </sst>
 </file>
@@ -8649,12 +9096,1119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84CED35-99FA-4481-AA0A-6E1FE1D86434}">
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4412</v>
+      </c>
+      <c r="C3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>181</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>301</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>361</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1071</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>177</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1046</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>129</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>278</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>833</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>195</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>290</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5375</v>
+      </c>
+      <c r="C20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>148</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23">
+        <v>107</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24">
+        <v>81</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>389</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26">
+        <v>243</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="2">
+        <v>21934</v>
+      </c>
+      <c r="C28">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31">
+        <v>167</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32">
+        <v>171</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33">
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>779</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37">
+        <v>85</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41">
+        <v>330</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>63</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <v>447</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44">
+        <v>33</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <v>219</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <v>328</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48">
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49">
+        <v>88</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50">
+        <v>108</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1163</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52">
+        <v>139</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>413</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1832</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1928</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57">
+        <v>252</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58">
+        <v>77</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59">
+        <v>140</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60">
+        <v>175</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61">
+        <v>180</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="2">
+        <v>8720</v>
+      </c>
+      <c r="C63">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65">
+        <v>47</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1150</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68">
+        <v>99</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69">
+        <v>64</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1870</v>
+      </c>
+      <c r="C70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71">
+        <v>837</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72">
+        <v>119</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73">
+        <v>777</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3131</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75">
+        <v>400</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77">
+        <v>60</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78">
+        <v>443</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80">
+        <v>111</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81">
+        <v>44</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>223</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2682</v>
+      </c>
+      <c r="C83">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84">
+        <v>405</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85">
+        <v>45</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86">
+        <v>310</v>
+      </c>
+      <c r="C86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1114</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88">
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89">
+        <v>124</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B048F-F861-4567-B73C-84E8892973E2}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2">
+        <v>54079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52992E52-EDFA-4E74-B139-5B09F4657C85}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A2" sqref="A2:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8695,10 +10249,10 @@
         <v>245</v>
       </c>
       <c r="C3">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D3" s="2">
-        <v>19290</v>
+        <v>19289</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -8713,7 +10267,7 @@
         <v>890</v>
       </c>
       <c r="D4" s="2">
-        <v>20336</v>
+        <v>20335</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8724,7 +10278,7 @@
         <v>176</v>
       </c>
       <c r="C5" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D5" s="2">
         <v>21852</v>
@@ -8766,10 +10320,10 @@
         <v>56</v>
       </c>
       <c r="C8" s="2">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D8" s="2">
-        <v>26183</v>
+        <v>26184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8783,7 +10337,7 @@
         <v>1555</v>
       </c>
       <c r="D9" s="2">
-        <v>27846</v>
+        <v>27847</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8794,7 +10348,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="2">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D10" s="2">
         <v>29311</v>
@@ -8822,10 +10376,10 @@
         <v>90</v>
       </c>
       <c r="C12" s="2">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D12" s="2">
-        <v>32041</v>
+        <v>32040</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8836,7 +10390,7 @@
         <v>80</v>
       </c>
       <c r="C13" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D13" s="2">
         <v>33493</v>
@@ -8864,10 +10418,10 @@
         <v>107</v>
       </c>
       <c r="C15" s="2">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D15" s="2">
-        <v>37083</v>
+        <v>37082</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8878,10 +10432,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="2">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D16" s="2">
-        <v>38708</v>
+        <v>38706</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8892,10 +10446,10 @@
         <v>56</v>
       </c>
       <c r="C17" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D17" s="2">
-        <v>39898</v>
+        <v>39895</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8909,7 +10463,7 @@
         <v>746</v>
       </c>
       <c r="D18" s="2">
-        <v>40683</v>
+        <v>40680</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8920,10 +10474,10 @@
         <v>128</v>
       </c>
       <c r="C19" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D19" s="2">
-        <v>41873</v>
+        <v>41871</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8937,7 +10491,7 @@
         <v>1559</v>
       </c>
       <c r="D20" s="2">
-        <v>43569</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8951,7 +10505,7 @@
         <v>1345</v>
       </c>
       <c r="D21" s="2">
-        <v>45024</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8965,7 +10519,7 @@
         <v>1340</v>
       </c>
       <c r="D22" s="2">
-        <v>46490</v>
+        <v>46488</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8976,10 +10530,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D23" s="2">
-        <v>47969</v>
+        <v>47968</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8993,7 +10547,7 @@
         <v>1165</v>
       </c>
       <c r="D24" s="2">
-        <v>49200</v>
+        <v>49199</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9007,7 +10561,7 @@
         <v>716</v>
       </c>
       <c r="D25" s="2">
-        <v>50040</v>
+        <v>50039</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9018,7 +10572,7 @@
         <v>214</v>
       </c>
       <c r="C26" s="2">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D26" s="2">
         <v>51788</v>
@@ -9032,10 +10586,10 @@
         <v>230</v>
       </c>
       <c r="C27" s="2">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D27" s="2">
-        <v>53917</v>
+        <v>53916</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9046,10 +10600,10 @@
         <v>216</v>
       </c>
       <c r="C28" s="2">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D28" s="2">
-        <v>56407</v>
+        <v>56405</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9060,10 +10614,10 @@
         <v>296</v>
       </c>
       <c r="C29" s="2">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="D29" s="2">
-        <v>59495</v>
+        <v>59491</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9074,10 +10628,10 @@
         <v>172</v>
       </c>
       <c r="C30" s="2">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D30" s="2">
-        <v>62115</v>
+        <v>62110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9091,7 +10645,7 @@
         <v>2493</v>
       </c>
       <c r="D31" s="2">
-        <v>64679</v>
+        <v>64674</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9102,10 +10656,10 @@
         <v>149</v>
       </c>
       <c r="C32" s="2">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D32" s="2">
-        <v>66697</v>
+        <v>66693</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9116,10 +10670,10 @@
         <v>268</v>
       </c>
       <c r="C33" s="2">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D33" s="2">
-        <v>70043</v>
+        <v>70038</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9130,10 +10684,10 @@
         <v>253</v>
       </c>
       <c r="C34" s="2">
-        <v>6827</v>
+        <v>6824</v>
       </c>
       <c r="D34" s="2">
-        <v>77123</v>
+        <v>77115</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9144,10 +10698,10 @@
         <v>429</v>
       </c>
       <c r="C35" s="2">
-        <v>3919</v>
+        <v>3916</v>
       </c>
       <c r="D35" s="2">
-        <v>81471</v>
+        <v>81460</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9161,7 +10715,7 @@
         <v>4206</v>
       </c>
       <c r="D36" s="2">
-        <v>85954</v>
+        <v>85943</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9172,10 +10726,10 @@
         <v>302</v>
       </c>
       <c r="C37" s="2">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="D37" s="2">
-        <v>89792</v>
+        <v>89779</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9186,10 +10740,10 @@
         <v>70</v>
       </c>
       <c r="C38" s="2">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D38" s="2">
-        <v>92953</v>
+        <v>92941</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9200,10 +10754,10 @@
         <v>231</v>
       </c>
       <c r="C39" s="2">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="D39" s="2">
-        <v>97021</v>
+        <v>97008</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9214,10 +10768,10 @@
         <v>266</v>
       </c>
       <c r="C40" s="2">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="D40" s="2">
-        <v>100186</v>
+        <v>100174</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9231,7 +10785,7 @@
         <v>4156</v>
       </c>
       <c r="D41" s="2">
-        <v>104665</v>
+        <v>104653</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9242,10 +10796,10 @@
         <v>336</v>
       </c>
       <c r="C42" s="2">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="D42" s="2">
-        <v>109675</v>
+        <v>109662</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9256,10 +10810,10 @@
         <v>254</v>
       </c>
       <c r="C43" s="2">
-        <v>4623</v>
+        <v>4620</v>
       </c>
       <c r="D43" s="2">
-        <v>114552</v>
+        <v>114536</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9273,7 +10827,7 @@
         <v>4679</v>
       </c>
       <c r="D44" s="2">
-        <v>119463</v>
+        <v>119447</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9284,10 +10838,10 @@
         <v>68</v>
       </c>
       <c r="C45" s="2">
-        <v>5230</v>
+        <v>5228</v>
       </c>
       <c r="D45" s="2">
-        <v>124761</v>
+        <v>124743</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9298,10 +10852,10 @@
         <v>278</v>
       </c>
       <c r="C46" s="2">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="D46" s="2">
-        <v>130064</v>
+        <v>130044</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9312,10 +10866,10 @@
         <v>355</v>
       </c>
       <c r="C47" s="2">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="D47" s="2">
-        <v>134079</v>
+        <v>134060</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9329,7 +10883,7 @@
         <v>6994</v>
       </c>
       <c r="D48" s="2">
-        <v>141374</v>
+        <v>141355</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9340,10 +10894,10 @@
         <v>1074</v>
       </c>
       <c r="C49" s="2">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="D49" s="2">
-        <v>148104</v>
+        <v>148086</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9354,10 +10908,10 @@
         <v>548</v>
       </c>
       <c r="C50" s="2">
-        <v>8580</v>
+        <v>8582</v>
       </c>
       <c r="D50" s="2">
-        <v>157232</v>
+        <v>157216</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9371,7 +10925,7 @@
         <v>7248</v>
       </c>
       <c r="D51" s="2">
-        <v>165197</v>
+        <v>165181</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9382,10 +10936,10 @@
         <v>232</v>
       </c>
       <c r="C52" s="2">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="D52" s="2">
-        <v>171178</v>
+        <v>171163</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9396,10 +10950,10 @@
         <v>132</v>
       </c>
       <c r="C53" s="2">
-        <v>6257</v>
+        <v>6256</v>
       </c>
       <c r="D53" s="2">
-        <v>177567</v>
+        <v>177551</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9413,7 +10967,7 @@
         <v>5772</v>
       </c>
       <c r="D54" s="2">
-        <v>183940</v>
+        <v>183924</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9427,7 +10981,7 @@
         <v>6423</v>
       </c>
       <c r="D55" s="2">
-        <v>190894</v>
+        <v>190878</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9438,10 +10992,10 @@
         <v>394</v>
       </c>
       <c r="C56" s="2">
-        <v>7864</v>
+        <v>7861</v>
       </c>
       <c r="D56" s="2">
-        <v>199152</v>
+        <v>199133</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9452,10 +11006,10 @@
         <v>742</v>
       </c>
       <c r="C57" s="2">
-        <v>8982</v>
+        <v>8979</v>
       </c>
       <c r="D57" s="2">
-        <v>208876</v>
+        <v>208854</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9469,7 +11023,7 @@
         <v>7827</v>
       </c>
       <c r="D58" s="2">
-        <v>217772</v>
+        <v>217750</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9480,10 +11034,10 @@
         <v>86</v>
       </c>
       <c r="C59" s="2">
-        <v>6896</v>
+        <v>6893</v>
       </c>
       <c r="D59" s="2">
-        <v>224754</v>
+        <v>224729</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9494,10 +11048,10 @@
         <v>86</v>
       </c>
       <c r="C60" s="2">
-        <v>6562</v>
+        <v>6560</v>
       </c>
       <c r="D60" s="2">
-        <v>231402</v>
+        <v>231375</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9508,10 +11062,10 @@
         <v>162</v>
       </c>
       <c r="C61" s="2">
-        <v>6775</v>
+        <v>6770</v>
       </c>
       <c r="D61" s="2">
-        <v>238339</v>
+        <v>238307</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9522,10 +11076,10 @@
         <v>254</v>
       </c>
       <c r="C62" s="2">
-        <v>9271</v>
+        <v>9272</v>
       </c>
       <c r="D62" s="2">
-        <v>247864</v>
+        <v>247833</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9536,10 +11090,10 @@
         <v>652</v>
       </c>
       <c r="C63" s="2">
-        <v>9245</v>
+        <v>9238</v>
       </c>
       <c r="D63" s="2">
-        <v>257761</v>
+        <v>257723</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9550,10 +11104,10 @@
         <v>667</v>
       </c>
       <c r="C64" s="2">
-        <v>9718</v>
+        <v>9710</v>
       </c>
       <c r="D64" s="2">
-        <v>268146</v>
+        <v>268100</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9564,10 +11118,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>8442</v>
+        <v>8437</v>
       </c>
       <c r="D65" s="2">
-        <v>276588</v>
+        <v>276537</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9578,10 +11132,10 @@
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>6890</v>
+        <v>6889</v>
       </c>
       <c r="D66" s="2">
-        <v>283478</v>
+        <v>283426</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9592,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="D67" s="2">
-        <v>287661</v>
+        <v>287608</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9606,10 +11160,10 @@
         <v>1061</v>
       </c>
       <c r="C68" s="2">
-        <v>6620</v>
+        <v>6619</v>
       </c>
       <c r="D68" s="2">
-        <v>295342</v>
+        <v>295288</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9617,13 +11171,13 @@
         <v>43985</v>
       </c>
       <c r="B69">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C69" s="2">
-        <v>15262</v>
+        <v>15261</v>
       </c>
       <c r="D69" s="2">
-        <v>311256</v>
+        <v>311202</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9631,13 +11185,13 @@
         <v>43986</v>
       </c>
       <c r="B70">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C70" s="2">
-        <v>10562</v>
+        <v>10551</v>
       </c>
       <c r="D70" s="2">
-        <v>322197</v>
+        <v>322131</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9648,10 +11202,10 @@
         <v>930</v>
       </c>
       <c r="C71" s="2">
-        <v>10114</v>
+        <v>10105</v>
       </c>
       <c r="D71" s="2">
-        <v>333241</v>
+        <v>333166</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9659,13 +11213,13 @@
         <v>43988</v>
       </c>
       <c r="B72" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C72" s="2">
-        <v>9321</v>
+        <v>9310</v>
       </c>
       <c r="D72" s="2">
-        <v>343649</v>
+        <v>343562</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9673,13 +11227,13 @@
         <v>43989</v>
       </c>
       <c r="B73">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C73" s="2">
-        <v>8788</v>
+        <v>8761</v>
       </c>
       <c r="D73" s="2">
-        <v>353172</v>
+        <v>353057</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9690,10 +11244,10 @@
         <v>44</v>
       </c>
       <c r="C74" s="2">
-        <v>7726</v>
+        <v>7723</v>
       </c>
       <c r="D74" s="2">
-        <v>360942</v>
+        <v>360824</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9704,10 +11258,10 @@
         <v>300</v>
       </c>
       <c r="C75" s="2">
-        <v>8584</v>
+        <v>8576</v>
       </c>
       <c r="D75" s="2">
-        <v>369826</v>
+        <v>369700</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9715,13 +11269,13 @@
         <v>43992</v>
       </c>
       <c r="B76">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C76" s="2">
-        <v>11363</v>
+        <v>11349</v>
       </c>
       <c r="D76" s="2">
-        <v>381862</v>
+        <v>381723</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9729,13 +11283,13 @@
         <v>43993</v>
       </c>
       <c r="B77">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C77" s="2">
-        <v>12637</v>
+        <v>12634</v>
       </c>
       <c r="D77" s="2">
-        <v>395264</v>
+        <v>395121</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9746,10 +11300,10 @@
         <v>1031</v>
       </c>
       <c r="C78" s="2">
-        <v>11775</v>
+        <v>11769</v>
       </c>
       <c r="D78" s="2">
-        <v>408070</v>
+        <v>407921</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9757,13 +11311,13 @@
         <v>43995</v>
       </c>
       <c r="B79">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C79" s="2">
-        <v>8968</v>
+        <v>8958</v>
       </c>
       <c r="D79" s="2">
-        <v>417866</v>
+        <v>417705</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9774,10 +11328,10 @@
         <v>254</v>
       </c>
       <c r="C80" s="2">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="D80" s="2">
-        <v>422895</v>
+        <v>422732</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9788,10 +11342,10 @@
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>6191</v>
+        <v>6173</v>
       </c>
       <c r="D81" s="2">
-        <v>429108</v>
+        <v>428927</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9802,10 +11356,10 @@
         <v>357</v>
       </c>
       <c r="C82" s="2">
-        <v>19177</v>
+        <v>19141</v>
       </c>
       <c r="D82" s="2">
-        <v>448642</v>
+        <v>448425</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9816,10 +11370,10 @@
         <v>486</v>
       </c>
       <c r="C83" s="2">
-        <v>12019</v>
+        <v>12006</v>
       </c>
       <c r="D83" s="2">
-        <v>461147</v>
+        <v>460917</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9830,10 +11384,10 @@
         <v>915</v>
       </c>
       <c r="C84" s="2">
-        <v>13278</v>
+        <v>13263</v>
       </c>
       <c r="D84" s="2">
-        <v>475340</v>
+        <v>475095</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9841,13 +11395,13 @@
         <v>44001</v>
       </c>
       <c r="B85" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C85" s="2">
-        <v>15652</v>
+        <v>15631</v>
       </c>
       <c r="D85" s="2">
-        <v>492104</v>
+        <v>491839</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9855,13 +11409,13 @@
         <v>44002</v>
       </c>
       <c r="B86">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C86" s="2">
-        <v>11316</v>
+        <v>11302</v>
       </c>
       <c r="D86" s="2">
-        <v>504243</v>
+        <v>503963</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9869,13 +11423,13 @@
         <v>44003</v>
       </c>
       <c r="B87">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C87" s="2">
-        <v>8201</v>
+        <v>8182</v>
       </c>
       <c r="D87" s="2">
-        <v>512845</v>
+        <v>512545</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9886,10 +11440,10 @@
         <v>23</v>
       </c>
       <c r="C88" s="2">
-        <v>7197</v>
+        <v>7187</v>
       </c>
       <c r="D88" s="2">
-        <v>520065</v>
+        <v>519755</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9900,10 +11454,10 @@
         <v>340</v>
       </c>
       <c r="C89" s="2">
-        <v>9348</v>
+        <v>9350</v>
       </c>
       <c r="D89" s="2">
-        <v>529753</v>
+        <v>529445</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9911,13 +11465,13 @@
         <v>44006</v>
       </c>
       <c r="B90">
-        <v>842</v>
+        <v>775</v>
       </c>
       <c r="C90" s="2">
-        <v>12051</v>
+        <v>12034</v>
       </c>
       <c r="D90" s="2">
-        <v>542646</v>
+        <v>542254</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9925,13 +11479,13 @@
         <v>44007</v>
       </c>
       <c r="B91" s="2">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C91" s="2">
-        <v>13548</v>
+        <v>13543</v>
       </c>
       <c r="D91" s="2">
-        <v>557252</v>
+        <v>556853</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9942,10 +11496,10 @@
         <v>459</v>
       </c>
       <c r="C92" s="2">
-        <v>12474</v>
+        <v>12452</v>
       </c>
       <c r="D92" s="2">
-        <v>570185</v>
+        <v>569764</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9956,10 +11510,10 @@
         <v>820</v>
       </c>
       <c r="C93" s="2">
-        <v>14077</v>
+        <v>14052</v>
       </c>
       <c r="D93" s="2">
-        <v>585082</v>
+        <v>584636</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9967,13 +11521,13 @@
         <v>44010</v>
       </c>
       <c r="B94">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="2">
-        <v>7343</v>
+        <v>7340</v>
       </c>
       <c r="D94" s="2">
-        <v>592612</v>
+        <v>592162</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9984,10 +11538,10 @@
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <v>12399</v>
+        <v>12366</v>
       </c>
       <c r="D95" s="2">
-        <v>605011</v>
+        <v>604528</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9998,10 +11552,10 @@
         <v>264</v>
       </c>
       <c r="C96" s="2">
-        <v>11685</v>
+        <v>11681</v>
       </c>
       <c r="D96" s="2">
-        <v>616960</v>
+        <v>616473</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10012,10 +11566,10 @@
         <v>465</v>
       </c>
       <c r="C97" s="2">
-        <v>13100</v>
+        <v>13073</v>
       </c>
       <c r="D97" s="2">
-        <v>630525</v>
+        <v>630011</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10026,10 +11580,10 @@
         <v>871</v>
       </c>
       <c r="C98" s="2">
-        <v>13831</v>
+        <v>13809</v>
       </c>
       <c r="D98" s="2">
-        <v>645227</v>
+        <v>644691</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10040,10 +11594,10 @@
         <v>409</v>
       </c>
       <c r="C99" s="2">
-        <v>13618</v>
+        <v>13589</v>
       </c>
       <c r="D99" s="2">
-        <v>659254</v>
+        <v>658689</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10054,10 +11608,10 @@
         <v>207</v>
       </c>
       <c r="C100" s="2">
-        <v>14214</v>
+        <v>14198</v>
       </c>
       <c r="D100" s="2">
-        <v>673675</v>
+        <v>673094</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10068,10 +11622,10 @@
         <v>32</v>
       </c>
       <c r="C101" s="2">
-        <v>5634</v>
+        <v>5623</v>
       </c>
       <c r="D101" s="2">
-        <v>679341</v>
+        <v>678749</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10082,10 +11636,10 @@
         <v>0</v>
       </c>
       <c r="C102" s="2">
-        <v>5905</v>
+        <v>5894</v>
       </c>
       <c r="D102" s="2">
-        <v>685246</v>
+        <v>684643</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10096,10 +11650,10 @@
         <v>227</v>
       </c>
       <c r="C103" s="2">
-        <v>7381</v>
+        <v>7374</v>
       </c>
       <c r="D103" s="2">
-        <v>692854</v>
+        <v>692244</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10107,13 +11661,13 @@
         <v>44020</v>
       </c>
       <c r="B104">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C104" s="2">
-        <v>13426</v>
+        <v>13417</v>
       </c>
       <c r="D104" s="2">
-        <v>706788</v>
+        <v>706168</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10121,13 +11675,13 @@
         <v>44021</v>
       </c>
       <c r="B105" s="2">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C105" s="2">
-        <v>18064</v>
+        <v>18058</v>
       </c>
       <c r="D105" s="2">
-        <v>726002</v>
+        <v>725373</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10138,10 +11692,10 @@
         <v>458</v>
       </c>
       <c r="C106" s="2">
-        <v>15617</v>
+        <v>15595</v>
       </c>
       <c r="D106" s="2">
-        <v>742077</v>
+        <v>741426</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10149,13 +11703,13 @@
         <v>44023</v>
       </c>
       <c r="B107">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C107" s="2">
-        <v>14341</v>
+        <v>14231</v>
       </c>
       <c r="D107" s="2">
-        <v>756923</v>
+        <v>756161</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10166,10 +11720,10 @@
         <v>112</v>
       </c>
       <c r="C108" s="2">
-        <v>11918</v>
+        <v>11894</v>
       </c>
       <c r="D108" s="2">
-        <v>768953</v>
+        <v>768167</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10180,10 +11734,10 @@
         <v>30</v>
       </c>
       <c r="C109" s="2">
-        <v>8912</v>
+        <v>8862</v>
       </c>
       <c r="D109" s="2">
-        <v>777895</v>
+        <v>777059</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10194,10 +11748,10 @@
         <v>223</v>
       </c>
       <c r="C110" s="2">
-        <v>12202</v>
+        <v>12181</v>
       </c>
       <c r="D110" s="2">
-        <v>790320</v>
+        <v>789463</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10208,10 +11762,10 @@
         <v>479</v>
       </c>
       <c r="C111" s="2">
-        <v>14310</v>
+        <v>14294</v>
       </c>
       <c r="D111" s="2">
-        <v>805109</v>
+        <v>804236</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10219,13 +11773,13 @@
         <v>44028</v>
       </c>
       <c r="B112">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C112" s="2">
-        <v>14047</v>
+        <v>14034</v>
       </c>
       <c r="D112" s="2">
-        <v>819849</v>
+        <v>818961</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10236,10 +11790,10 @@
         <v>695</v>
       </c>
       <c r="C113" s="2">
-        <v>15860</v>
+        <v>15845</v>
       </c>
       <c r="D113" s="2">
-        <v>836404</v>
+        <v>835501</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10247,13 +11801,13 @@
         <v>44030</v>
       </c>
       <c r="B114">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C114" s="2">
-        <v>16398</v>
+        <v>16396</v>
       </c>
       <c r="D114" s="2">
-        <v>853196</v>
+        <v>852289</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10264,10 +11818,10 @@
         <v>97</v>
       </c>
       <c r="C115" s="2">
-        <v>14009</v>
+        <v>13938</v>
       </c>
       <c r="D115" s="2">
-        <v>867302</v>
+        <v>866324</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10278,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="C116" s="2">
-        <v>9537</v>
+        <v>9502</v>
       </c>
       <c r="D116" s="2">
-        <v>876839</v>
+        <v>875826</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10289,13 +11843,13 @@
         <v>44033</v>
       </c>
       <c r="B117">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C117" s="2">
-        <v>11938</v>
+        <v>11927</v>
       </c>
       <c r="D117" s="2">
-        <v>889105</v>
+        <v>888082</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10303,13 +11857,13 @@
         <v>44034</v>
       </c>
       <c r="B118">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C118" s="2">
-        <v>15843</v>
+        <v>15763</v>
       </c>
       <c r="D118" s="2">
-        <v>905640</v>
+        <v>904532</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10317,13 +11871,13 @@
         <v>44035</v>
       </c>
       <c r="B119" s="2">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C119" s="2">
-        <v>15712</v>
+        <v>15685</v>
       </c>
       <c r="D119" s="2">
-        <v>922412</v>
+        <v>921272</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10334,10 +11888,10 @@
         <v>783</v>
       </c>
       <c r="C120" s="2">
-        <v>17330</v>
+        <v>17247</v>
       </c>
       <c r="D120" s="2">
-        <v>940525</v>
+        <v>939302</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10345,13 +11899,13 @@
         <v>44037</v>
       </c>
       <c r="B121">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C121" s="2">
-        <v>15840</v>
+        <v>15806</v>
       </c>
       <c r="D121" s="2">
-        <v>956800</v>
+        <v>955541</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10359,13 +11913,13 @@
         <v>44038</v>
       </c>
       <c r="B122">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C122" s="2">
-        <v>13257</v>
+        <v>13248</v>
       </c>
       <c r="D122" s="2">
-        <v>970339</v>
+        <v>969070</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10376,10 +11930,10 @@
         <v>18</v>
       </c>
       <c r="C123" s="2">
-        <v>9350</v>
+        <v>9351</v>
       </c>
       <c r="D123" s="2">
-        <v>979707</v>
+        <v>978439</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10390,10 +11944,10 @@
         <v>344</v>
       </c>
       <c r="C124" s="2">
-        <v>13147</v>
+        <v>13155</v>
       </c>
       <c r="D124" s="2">
-        <v>993198</v>
+        <v>991938</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10401,13 +11955,13 @@
         <v>44041</v>
       </c>
       <c r="B125">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C125" s="2">
-        <v>14149</v>
+        <v>14143</v>
       </c>
       <c r="D125" s="2">
-        <v>1008003</v>
+        <v>1006740</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10415,13 +11969,13 @@
         <v>44042</v>
       </c>
       <c r="B126" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C126" s="2">
-        <v>15584</v>
+        <v>15570</v>
       </c>
       <c r="D126" s="2">
-        <v>1024648</v>
+        <v>1023369</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10429,13 +11983,13 @@
         <v>44043</v>
       </c>
       <c r="B127">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C127" s="2">
-        <v>14488</v>
+        <v>14482</v>
       </c>
       <c r="D127" s="2">
-        <v>1039643</v>
+        <v>1038360</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10446,10 +12000,10 @@
         <v>273</v>
       </c>
       <c r="C128" s="2">
-        <v>14896</v>
+        <v>14890</v>
       </c>
       <c r="D128" s="2">
-        <v>1054812</v>
+        <v>1053523</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10457,13 +12011,13 @@
         <v>44045</v>
       </c>
       <c r="B129">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C129" s="2">
-        <v>15379</v>
+        <v>15326</v>
       </c>
       <c r="D129" s="2">
-        <v>1070635</v>
+        <v>1069292</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10474,10 +12028,304 @@
         <v>13</v>
       </c>
       <c r="C130" s="2">
-        <v>8047</v>
+        <v>8045</v>
       </c>
       <c r="D130" s="2">
-        <v>1078695</v>
+        <v>1077350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B131">
+        <v>275</v>
+      </c>
+      <c r="C131" s="2">
+        <v>11628</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1089253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B132">
+        <v>762</v>
+      </c>
+      <c r="C132" s="2">
+        <v>14176</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1104191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B133">
+        <v>692</v>
+      </c>
+      <c r="C133" s="2">
+        <v>15214</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1120097</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B134">
+        <v>41</v>
+      </c>
+      <c r="C134" s="2">
+        <v>17713</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1137851</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B135">
+        <v>752</v>
+      </c>
+      <c r="C135" s="2">
+        <v>19236</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1157839</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B136">
+        <v>330</v>
+      </c>
+      <c r="C136" s="2">
+        <v>12356</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1170525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B137">
+        <v>22</v>
+      </c>
+      <c r="C137" s="2">
+        <v>6282</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1176829</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B138">
+        <v>75</v>
+      </c>
+      <c r="C138" s="2">
+        <v>10877</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1187781</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B139">
+        <v>505</v>
+      </c>
+      <c r="C139" s="2">
+        <v>14263</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1202549</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B140">
+        <v>483</v>
+      </c>
+      <c r="C140" s="2">
+        <v>16159</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1219191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B141">
+        <v>325</v>
+      </c>
+      <c r="C141" s="2">
+        <v>16791</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1236307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B142">
+        <v>115</v>
+      </c>
+      <c r="C142" s="2">
+        <v>16553</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1252975</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B143">
+        <v>77</v>
+      </c>
+      <c r="C143" s="2">
+        <v>12629</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1265681</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B144">
+        <v>316</v>
+      </c>
+      <c r="C144" s="2">
+        <v>7057</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1273054</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B145">
+        <v>424</v>
+      </c>
+      <c r="C145" s="2">
+        <v>34330</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1307808</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B146">
+        <v>343</v>
+      </c>
+      <c r="C146" s="2">
+        <v>13474</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1321625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B147">
+        <v>548</v>
+      </c>
+      <c r="C147" s="2">
+        <v>18263</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1340436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B148">
+        <v>382</v>
+      </c>
+      <c r="C148" s="2">
+        <v>16319</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1357137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B149">
+        <v>186</v>
+      </c>
+      <c r="C149" s="2">
+        <v>16521</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1373844</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B150">
+        <v>284</v>
+      </c>
+      <c r="C150" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1386128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B151">
+        <v>36</v>
+      </c>
+      <c r="C151" s="2">
+        <v>8822</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1394986</v>
       </c>
     </row>
   </sheetData>
@@ -10488,10 +12336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8873798-F11B-4B2E-980E-F5A7F4CD303A}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11018,10 +12866,10 @@
         <v>43941</v>
       </c>
       <c r="B48">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C48" s="2">
-        <v>3201</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11032,7 +12880,7 @@
         <v>262</v>
       </c>
       <c r="C49" s="2">
-        <v>3463</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11043,7 +12891,7 @@
         <v>309</v>
       </c>
       <c r="C50" s="2">
-        <v>3772</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11054,7 +12902,7 @@
         <v>525</v>
       </c>
       <c r="C51" s="2">
-        <v>4297</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11065,7 +12913,7 @@
         <v>519</v>
       </c>
       <c r="C52" s="2">
-        <v>4816</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11076,7 +12924,7 @@
         <v>339</v>
       </c>
       <c r="C53" s="2">
-        <v>5155</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11087,7 +12935,7 @@
         <v>386</v>
       </c>
       <c r="C54" s="2">
-        <v>5541</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11098,7 +12946,7 @@
         <v>680</v>
       </c>
       <c r="C55" s="2">
-        <v>6221</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11109,7 +12957,7 @@
         <v>605</v>
       </c>
       <c r="C56" s="2">
-        <v>6826</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11120,7 +12968,7 @@
         <v>682</v>
       </c>
       <c r="C57" s="2">
-        <v>7508</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11131,7 +12979,7 @@
         <v>648</v>
       </c>
       <c r="C58" s="2">
-        <v>8156</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11139,10 +12987,10 @@
         <v>43952</v>
       </c>
       <c r="B59">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C59" s="2">
-        <v>8778</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11153,7 +13001,7 @@
         <v>335</v>
       </c>
       <c r="C60" s="2">
-        <v>9113</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11164,7 +13012,7 @@
         <v>340</v>
       </c>
       <c r="C61" s="2">
-        <v>9453</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11172,10 +13020,10 @@
         <v>43955</v>
       </c>
       <c r="B62">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C62" s="2">
-        <v>10278</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11183,10 +13031,10 @@
         <v>43956</v>
       </c>
       <c r="B63">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C63" s="2">
-        <v>10928</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11194,10 +13042,10 @@
         <v>43957</v>
       </c>
       <c r="B64">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C64" s="2">
-        <v>11569</v>
+        <v>11572</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11205,10 +13053,10 @@
         <v>43958</v>
       </c>
       <c r="B65">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C65" s="2">
-        <v>12388</v>
+        <v>12392</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11219,7 +13067,7 @@
         <v>713</v>
       </c>
       <c r="C66" s="2">
-        <v>13101</v>
+        <v>13105</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11230,7 +13078,7 @@
         <v>281</v>
       </c>
       <c r="C67" s="2">
-        <v>13382</v>
+        <v>13386</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11241,7 +13089,7 @@
         <v>230</v>
       </c>
       <c r="C68" s="2">
-        <v>13612</v>
+        <v>13616</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11252,7 +13100,7 @@
         <v>824</v>
       </c>
       <c r="C69" s="2">
-        <v>14436</v>
+        <v>14440</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11263,7 +13111,7 @@
         <v>663</v>
       </c>
       <c r="C70" s="2">
-        <v>15099</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11271,10 +13119,10 @@
         <v>43964</v>
       </c>
       <c r="B71">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C71" s="2">
-        <v>15832</v>
+        <v>15838</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11285,7 +13133,7 @@
         <v>795</v>
       </c>
       <c r="C72" s="2">
-        <v>16627</v>
+        <v>16633</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11296,7 +13144,7 @@
         <v>796</v>
       </c>
       <c r="C73" s="2">
-        <v>17423</v>
+        <v>17429</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11307,7 +13155,7 @@
         <v>343</v>
       </c>
       <c r="C74" s="2">
-        <v>17766</v>
+        <v>17772</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11318,7 +13166,7 @@
         <v>311</v>
       </c>
       <c r="C75" s="2">
-        <v>18077</v>
+        <v>18083</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11326,10 +13174,10 @@
         <v>43969</v>
       </c>
       <c r="B76">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C76" s="2">
-        <v>19050</v>
+        <v>19055</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11337,10 +13185,10 @@
         <v>43970</v>
       </c>
       <c r="B77">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C77" s="2">
-        <v>19907</v>
+        <v>19914</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11348,10 +13196,10 @@
         <v>43971</v>
       </c>
       <c r="B78">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C78" s="2">
-        <v>20674</v>
+        <v>20680</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11362,7 +13210,7 @@
         <v>981</v>
       </c>
       <c r="C79" s="2">
-        <v>21655</v>
+        <v>21661</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11373,7 +13221,7 @@
         <v>790</v>
       </c>
       <c r="C80" s="2">
-        <v>22445</v>
+        <v>22451</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11381,10 +13229,10 @@
         <v>43974</v>
       </c>
       <c r="B81">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C81" s="2">
-        <v>22844</v>
+        <v>22851</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11395,7 +13243,7 @@
         <v>359</v>
       </c>
       <c r="C82" s="2">
-        <v>23203</v>
+        <v>23210</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11403,10 +13251,10 @@
         <v>43976</v>
       </c>
       <c r="B83">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C83" s="2">
-        <v>23614</v>
+        <v>23622</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11417,7 +13265,7 @@
         <v>796</v>
       </c>
       <c r="C84" s="2">
-        <v>24410</v>
+        <v>24418</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11425,10 +13273,10 @@
         <v>43978</v>
       </c>
       <c r="B85">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C85" s="2">
-        <v>25092</v>
+        <v>25101</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11436,10 +13284,10 @@
         <v>43979</v>
       </c>
       <c r="B86">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C86" s="2">
-        <v>25668</v>
+        <v>25678</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11447,10 +13295,10 @@
         <v>43980</v>
       </c>
       <c r="B87">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C87" s="2">
-        <v>26125</v>
+        <v>26136</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11458,10 +13306,10 @@
         <v>43981</v>
       </c>
       <c r="B88">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" s="2">
-        <v>26293</v>
+        <v>26305</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11469,10 +13317,10 @@
         <v>43982</v>
       </c>
       <c r="B89">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C89" s="2">
-        <v>26435</v>
+        <v>26448</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11480,10 +13328,10 @@
         <v>43983</v>
       </c>
       <c r="B90">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C90" s="2">
-        <v>27017</v>
+        <v>27033</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11494,7 +13342,7 @@
         <v>486</v>
       </c>
       <c r="C91" s="2">
-        <v>27503</v>
+        <v>27519</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11502,10 +13350,10 @@
         <v>43985</v>
       </c>
       <c r="B92">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C92" s="2">
-        <v>28025</v>
+        <v>28043</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11516,7 +13364,7 @@
         <v>405</v>
       </c>
       <c r="C93" s="2">
-        <v>28430</v>
+        <v>28448</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11524,10 +13372,10 @@
         <v>43987</v>
       </c>
       <c r="B94">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C94" s="2">
-        <v>28841</v>
+        <v>28860</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11538,7 +13386,7 @@
         <v>163</v>
       </c>
       <c r="C95" s="2">
-        <v>29004</v>
+        <v>29023</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11549,7 +13397,7 @@
         <v>137</v>
       </c>
       <c r="C96" s="2">
-        <v>29141</v>
+        <v>29160</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11557,10 +13405,10 @@
         <v>43990</v>
       </c>
       <c r="B97">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C97" s="2">
-        <v>29620</v>
+        <v>29642</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11568,10 +13416,10 @@
         <v>43991</v>
       </c>
       <c r="B98">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C98" s="2">
-        <v>30080</v>
+        <v>30103</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11579,10 +13427,10 @@
         <v>43992</v>
       </c>
       <c r="B99">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C99" s="2">
-        <v>30487</v>
+        <v>30509</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11590,10 +13438,10 @@
         <v>43993</v>
       </c>
       <c r="B100">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C100" s="2">
-        <v>30832</v>
+        <v>30856</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11601,10 +13449,10 @@
         <v>43994</v>
       </c>
       <c r="B101">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C101" s="2">
-        <v>31141</v>
+        <v>31168</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11615,7 +13463,7 @@
         <v>153</v>
       </c>
       <c r="C102" s="2">
-        <v>31294</v>
+        <v>31321</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11626,7 +13474,7 @@
         <v>150</v>
       </c>
       <c r="C103" s="2">
-        <v>31444</v>
+        <v>31471</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11634,10 +13482,10 @@
         <v>43997</v>
       </c>
       <c r="B104">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C104" s="2">
-        <v>31844</v>
+        <v>31886</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11645,10 +13493,10 @@
         <v>43998</v>
       </c>
       <c r="B105">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C105" s="2">
-        <v>32256</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11659,7 +13507,7 @@
         <v>429</v>
       </c>
       <c r="C106" s="2">
-        <v>32685</v>
+        <v>32729</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11667,10 +13515,10 @@
         <v>44000</v>
       </c>
       <c r="B107">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C107" s="2">
-        <v>33073</v>
+        <v>33122</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11678,10 +13526,10 @@
         <v>44001</v>
       </c>
       <c r="B108">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C108" s="2">
-        <v>33413</v>
+        <v>33470</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11689,10 +13537,10 @@
         <v>44002</v>
       </c>
       <c r="B109">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C109" s="2">
-        <v>33633</v>
+        <v>33693</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11700,10 +13548,10 @@
         <v>44003</v>
       </c>
       <c r="B110">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110" s="2">
-        <v>33830</v>
+        <v>33891</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11711,10 +13559,10 @@
         <v>44004</v>
       </c>
       <c r="B111">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C111" s="2">
-        <v>34315</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11722,10 +13570,10 @@
         <v>44005</v>
       </c>
       <c r="B112">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C112" s="2">
-        <v>34905</v>
+        <v>34971</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11733,10 +13581,10 @@
         <v>44006</v>
       </c>
       <c r="B113">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C113" s="2">
-        <v>35418</v>
+        <v>35487</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11744,10 +13592,10 @@
         <v>44007</v>
       </c>
       <c r="B114">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C114" s="2">
-        <v>35906</v>
+        <v>35974</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11758,7 +13606,7 @@
         <v>529</v>
       </c>
       <c r="C115" s="2">
-        <v>36435</v>
+        <v>36503</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11766,10 +13614,10 @@
         <v>44009</v>
       </c>
       <c r="B116">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C116" s="2">
-        <v>36716</v>
+        <v>36783</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11777,10 +13625,10 @@
         <v>44010</v>
       </c>
       <c r="B117">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C117" s="2">
-        <v>36958</v>
+        <v>37027</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11788,10 +13636,10 @@
         <v>44011</v>
       </c>
       <c r="B118">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C118" s="2">
-        <v>37553</v>
+        <v>37628</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11799,10 +13647,10 @@
         <v>44012</v>
       </c>
       <c r="B119">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C119" s="2">
-        <v>38144</v>
+        <v>38220</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11810,10 +13658,10 @@
         <v>44013</v>
       </c>
       <c r="B120">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C120" s="2">
-        <v>38782</v>
+        <v>38857</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11821,10 +13669,10 @@
         <v>44014</v>
       </c>
       <c r="B121">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C121" s="2">
-        <v>39353</v>
+        <v>39430</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11835,7 +13683,7 @@
         <v>424</v>
       </c>
       <c r="C122" s="2">
-        <v>39777</v>
+        <v>39854</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11843,10 +13691,10 @@
         <v>44016</v>
       </c>
       <c r="B123">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2">
-        <v>39880</v>
+        <v>39955</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11854,10 +13702,10 @@
         <v>44017</v>
       </c>
       <c r="B124">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C124" s="2">
-        <v>40159</v>
+        <v>40235</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11865,10 +13713,10 @@
         <v>44018</v>
       </c>
       <c r="B125">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C125" s="2">
-        <v>40919</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11876,10 +13724,10 @@
         <v>44019</v>
       </c>
       <c r="B126">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C126" s="2">
-        <v>41618</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11887,10 +13735,10 @@
         <v>44020</v>
       </c>
       <c r="B127">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C127" s="2">
-        <v>42403</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11898,10 +13746,10 @@
         <v>44021</v>
       </c>
       <c r="B128">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C128" s="2">
-        <v>43148</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11909,10 +13757,10 @@
         <v>44022</v>
       </c>
       <c r="B129">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C129" s="2">
-        <v>43902</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11920,10 +13768,10 @@
         <v>44023</v>
       </c>
       <c r="B130">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C130" s="2">
-        <v>44185</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11931,10 +13779,10 @@
         <v>44024</v>
       </c>
       <c r="B131">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C131" s="2">
-        <v>44536</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11942,10 +13790,10 @@
         <v>44025</v>
       </c>
       <c r="B132">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C132" s="2">
-        <v>45280</v>
+        <v>45381</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11953,10 +13801,10 @@
         <v>44026</v>
       </c>
       <c r="B133">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C133" s="2">
-        <v>46090</v>
+        <v>46193</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11964,10 +13812,10 @@
         <v>44027</v>
       </c>
       <c r="B134">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C134" s="2">
-        <v>46883</v>
+        <v>46990</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11978,7 +13826,7 @@
         <v>802</v>
       </c>
       <c r="C135" s="2">
-        <v>47685</v>
+        <v>47792</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11986,10 +13834,10 @@
         <v>44029</v>
       </c>
       <c r="B136">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="C136" s="2">
-        <v>48338</v>
+        <v>48469</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11997,10 +13845,10 @@
         <v>44030</v>
       </c>
       <c r="B137">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C137" s="2">
-        <v>48638</v>
+        <v>48772</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12008,10 +13856,10 @@
         <v>44031</v>
       </c>
       <c r="B138">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C138" s="2">
-        <v>48948</v>
+        <v>49081</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12019,10 +13867,10 @@
         <v>44032</v>
       </c>
       <c r="B139">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="C139" s="2">
-        <v>49768</v>
+        <v>49906</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12030,10 +13878,10 @@
         <v>44033</v>
       </c>
       <c r="B140">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="C140" s="2">
-        <v>50477</v>
+        <v>50633</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12041,10 +13889,10 @@
         <v>44034</v>
       </c>
       <c r="B141">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="C141" s="2">
-        <v>51199</v>
+        <v>51372</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12052,10 +13900,10 @@
         <v>44035</v>
       </c>
       <c r="B142">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="C142" s="2">
-        <v>52040</v>
+        <v>52221</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12063,10 +13911,10 @@
         <v>44036</v>
       </c>
       <c r="B143">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="C143" s="2">
-        <v>52819</v>
+        <v>53018</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12074,10 +13922,10 @@
         <v>44037</v>
       </c>
       <c r="B144">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C144" s="2">
-        <v>53151</v>
+        <v>53358</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12085,10 +13933,10 @@
         <v>44038</v>
       </c>
       <c r="B145">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C145" s="2">
-        <v>53468</v>
+        <v>53677</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12096,10 +13944,10 @@
         <v>44039</v>
       </c>
       <c r="B146">
-        <v>802</v>
+        <v>829</v>
       </c>
       <c r="C146" s="2">
-        <v>54270</v>
+        <v>54506</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12107,10 +13955,10 @@
         <v>44040</v>
       </c>
       <c r="B147">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="C147" s="2">
-        <v>55037</v>
+        <v>55308</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12118,10 +13966,10 @@
         <v>44041</v>
       </c>
       <c r="B148">
-        <v>744</v>
+        <v>796</v>
       </c>
       <c r="C148" s="2">
-        <v>55781</v>
+        <v>56104</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12129,10 +13977,10 @@
         <v>44042</v>
       </c>
       <c r="B149">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="C149" s="2">
-        <v>56439</v>
+        <v>56892</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12140,10 +13988,10 @@
         <v>44043</v>
       </c>
       <c r="B150">
-        <v>489</v>
+        <v>702</v>
       </c>
       <c r="C150" s="2">
-        <v>56928</v>
+        <v>57594</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12151,10 +13999,10 @@
         <v>44044</v>
       </c>
       <c r="B151">
-        <v>159</v>
+        <v>449</v>
       </c>
       <c r="C151" s="2">
-        <v>57087</v>
+        <v>58043</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12162,10 +14010,10 @@
         <v>44045</v>
       </c>
       <c r="B152">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="C152" s="2">
-        <v>57146</v>
+        <v>58341</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12173,10 +14021,241 @@
         <v>44046</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>812</v>
       </c>
       <c r="C153" s="2">
-        <v>57152</v>
+        <v>59153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B154">
+        <v>757</v>
+      </c>
+      <c r="C154" s="2">
+        <v>59910</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B155">
+        <v>668</v>
+      </c>
+      <c r="C155" s="2">
+        <v>60578</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B156">
+        <v>713</v>
+      </c>
+      <c r="C156" s="2">
+        <v>61291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B157">
+        <v>677</v>
+      </c>
+      <c r="C157" s="2">
+        <v>61968</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B158">
+        <v>374</v>
+      </c>
+      <c r="C158" s="2">
+        <v>62342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B159">
+        <v>315</v>
+      </c>
+      <c r="C159" s="2">
+        <v>62657</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B160">
+        <v>786</v>
+      </c>
+      <c r="C160" s="2">
+        <v>63443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B161">
+        <v>686</v>
+      </c>
+      <c r="C161" s="2">
+        <v>64129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B162">
+        <v>685</v>
+      </c>
+      <c r="C162" s="2">
+        <v>64814</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B163">
+        <v>676</v>
+      </c>
+      <c r="C163" s="2">
+        <v>65490</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B164">
+        <v>669</v>
+      </c>
+      <c r="C164" s="2">
+        <v>66159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B165">
+        <v>367</v>
+      </c>
+      <c r="C165" s="2">
+        <v>66526</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B166">
+        <v>332</v>
+      </c>
+      <c r="C166" s="2">
+        <v>66858</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B167">
+        <v>865</v>
+      </c>
+      <c r="C167" s="2">
+        <v>67723</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B168">
+        <v>776</v>
+      </c>
+      <c r="C168" s="2">
+        <v>68499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B169">
+        <v>684</v>
+      </c>
+      <c r="C169" s="2">
+        <v>69183</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B170">
+        <v>732</v>
+      </c>
+      <c r="C170" s="2">
+        <v>69915</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B171">
+        <v>542</v>
+      </c>
+      <c r="C171" s="2">
+        <v>70457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B172">
+        <v>158</v>
+      </c>
+      <c r="C172" s="2">
+        <v>70615</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B173">
+        <v>82</v>
+      </c>
+      <c r="C173" s="2">
+        <v>70697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" s="2">
+        <v>70701</v>
       </c>
     </row>
   </sheetData>
@@ -12187,10 +14266,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C941E7-90B0-442F-AD33-BF86CD637602}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13365,6 +15444,9 @@
       <c r="A107" s="1">
         <v>44016</v>
       </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
       <c r="C107" s="2">
         <v>1466</v>
       </c>
@@ -13708,6 +15790,237 @@
       </c>
       <c r="C138" s="2">
         <v>1620</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B142">
+        <v>8</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B146">
+        <v>12</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B152">
+        <v>9</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B153">
+        <v>17</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B155">
+        <v>8</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1779</v>
       </c>
     </row>
   </sheetData>
@@ -13718,10 +16031,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27ACE1C-5B78-4231-82E4-395ECBDB675E}">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="Q108" sqref="Q108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15566,6 +17879,12 @@
       <c r="A109" s="1">
         <v>44016</v>
       </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
       <c r="D109" s="2">
         <v>4139</v>
       </c>
@@ -16098,10 +18417,914 @@
       </c>
       <c r="E140" s="2">
         <v>1563</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B141">
+        <v>152</v>
+      </c>
+      <c r="C141">
+        <v>153</v>
+      </c>
+      <c r="D141" s="2">
+        <v>5373</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B142">
+        <v>153</v>
+      </c>
+      <c r="C142">
+        <v>166</v>
+      </c>
+      <c r="D142" s="2">
+        <v>5421</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B143">
+        <v>155</v>
+      </c>
+      <c r="C143">
+        <v>145</v>
+      </c>
+      <c r="D143" s="2">
+        <v>5458</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B144">
+        <v>154</v>
+      </c>
+      <c r="C144">
+        <v>155</v>
+      </c>
+      <c r="D144" s="2">
+        <v>5506</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B145">
+        <v>148</v>
+      </c>
+      <c r="C145">
+        <v>164</v>
+      </c>
+      <c r="D145" s="2">
+        <v>5555</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B146">
+        <v>159</v>
+      </c>
+      <c r="C146">
+        <v>161</v>
+      </c>
+      <c r="D146" s="2">
+        <v>5606</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B147">
+        <v>147</v>
+      </c>
+      <c r="C147">
+        <v>190</v>
+      </c>
+      <c r="D147" s="2">
+        <v>5661</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B148">
+        <v>154</v>
+      </c>
+      <c r="C148">
+        <v>181</v>
+      </c>
+      <c r="D148" s="2">
+        <v>5711</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B149">
+        <v>154</v>
+      </c>
+      <c r="C149">
+        <v>154</v>
+      </c>
+      <c r="D149" s="2">
+        <v>5742</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B150">
+        <v>152</v>
+      </c>
+      <c r="C150">
+        <v>161</v>
+      </c>
+      <c r="D150" s="2">
+        <v>5783</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B151">
+        <v>140</v>
+      </c>
+      <c r="C151">
+        <v>167</v>
+      </c>
+      <c r="D151" s="2">
+        <v>5822</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B152">
+        <v>152</v>
+      </c>
+      <c r="C152">
+        <v>138</v>
+      </c>
+      <c r="D152" s="2">
+        <v>5851</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B153">
+        <v>155</v>
+      </c>
+      <c r="C153">
+        <v>131</v>
+      </c>
+      <c r="D153" s="2">
+        <v>5886</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B154">
+        <v>154</v>
+      </c>
+      <c r="C154">
+        <v>150</v>
+      </c>
+      <c r="D154" s="2">
+        <v>5932</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B155">
+        <v>152</v>
+      </c>
+      <c r="C155">
+        <v>169</v>
+      </c>
+      <c r="D155" s="2">
+        <v>5988</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B156">
+        <v>148</v>
+      </c>
+      <c r="C156">
+        <v>161</v>
+      </c>
+      <c r="D156" s="2">
+        <v>6019</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B157">
+        <v>136</v>
+      </c>
+      <c r="C157">
+        <v>160</v>
+      </c>
+      <c r="D157" s="2">
+        <v>6064</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B158">
+        <v>148</v>
+      </c>
+      <c r="C158">
+        <v>168</v>
+      </c>
+      <c r="D158" s="2">
+        <v>6113</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B159">
+        <v>137</v>
+      </c>
+      <c r="C159">
+        <v>164</v>
+      </c>
+      <c r="D159" s="2">
+        <v>6151</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B160">
+        <v>135</v>
+      </c>
+      <c r="C160">
+        <v>175</v>
+      </c>
+      <c r="D160" s="2">
+        <v>6195</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B161">
+        <v>137</v>
+      </c>
+      <c r="C161">
+        <v>175</v>
+      </c>
+      <c r="D161" s="2">
+        <v>6238</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B3EDBE-7BDD-4C73-8605-6B0B60E672DA}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1954</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6032</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9079</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7217</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6688</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6061</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5284</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4925</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4817</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4246</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3205</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2150</v>
+      </c>
+      <c r="C15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1605</v>
+      </c>
+      <c r="C16">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1294</v>
+      </c>
+      <c r="C17">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1190</v>
+      </c>
+      <c r="C18">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1034</v>
+      </c>
+      <c r="C19">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>777</v>
+      </c>
+      <c r="C20">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>351</v>
+      </c>
+      <c r="C21">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD9BA8E-DC36-4405-B60A-31D19E843D6C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2">
+        <v>33992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F000EE8-F4AB-44BA-98B6-F0D2D728EDFE}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2">
+        <v>29966</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14388</v>
+      </c>
+      <c r="C3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4105</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>576</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1282</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12677</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6698</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EBF95F-33B4-435E-A468-126864B7E49C}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MN_covid.xlsx
+++ b/MN_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthj\Documents\pers\MN_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6FC17-3367-4F5E-8F08-2F6010944472}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3746D86A-A049-495A-B848-F500B9D670A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20994" windowHeight="11610" activeTab="10" xr2:uid="{955FBE10-6FF1-488B-85CB-533582D6E676}"/>
+    <workbookView xWindow="1098" yWindow="1098" windowWidth="20994" windowHeight="11610" activeTab="4" xr2:uid="{955FBE10-6FF1-488B-85CB-533582D6E676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
   <si>
     <t>Date reported to MDH</t>
   </si>
@@ -9101,7 +9101,7 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C89"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9122,7 +9122,7 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9133,10 +9133,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2">
-        <v>4412</v>
+        <v>4782</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9144,7 +9144,7 @@
         <v>69</v>
       </c>
       <c r="B4">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -9155,7 +9155,7 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9166,7 +9166,7 @@
         <v>71</v>
       </c>
       <c r="B6">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -9177,7 +9177,7 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2">
-        <v>1071</v>
+        <v>1278</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -9199,7 +9199,7 @@
         <v>74</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -9210,7 +9210,7 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9221,7 +9221,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2">
-        <v>1046</v>
+        <v>1128</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -9232,7 +9232,7 @@
         <v>77</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -9243,7 +9243,7 @@
         <v>78</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9254,7 +9254,7 @@
         <v>79</v>
       </c>
       <c r="B14">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9265,7 +9265,7 @@
         <v>80</v>
       </c>
       <c r="B15">
-        <v>833</v>
+        <v>893</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -9276,7 +9276,7 @@
         <v>81</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>83</v>
       </c>
       <c r="B18">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>84</v>
       </c>
       <c r="B19">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -9320,10 +9320,10 @@
         <v>85</v>
       </c>
       <c r="B20" s="2">
-        <v>5375</v>
+        <v>5973</v>
       </c>
       <c r="C20">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9331,7 +9331,7 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>88</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>89</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>90</v>
       </c>
       <c r="B25">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>91</v>
       </c>
       <c r="B26">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -9408,10 +9408,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="2">
-        <v>21934</v>
+        <v>23209</v>
       </c>
       <c r="C28">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9419,7 +9419,7 @@
         <v>94</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>95</v>
       </c>
       <c r="B30">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -9441,7 +9441,7 @@
         <v>96</v>
       </c>
       <c r="B31">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>97</v>
       </c>
       <c r="B32">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -9463,10 +9463,10 @@
         <v>98</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9474,10 +9474,10 @@
         <v>99</v>
       </c>
       <c r="B34">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9485,7 +9485,7 @@
         <v>100</v>
       </c>
       <c r="B35">
-        <v>779</v>
+        <v>820</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -9518,7 +9518,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9540,7 +9540,7 @@
         <v>105</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>106</v>
       </c>
       <c r="B41">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -9562,7 +9562,7 @@
         <v>107</v>
       </c>
       <c r="B42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -9573,7 +9573,7 @@
         <v>108</v>
       </c>
       <c r="B43">
-        <v>447</v>
+        <v>538</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -9584,7 +9584,7 @@
         <v>109</v>
       </c>
       <c r="B44">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9595,7 +9595,7 @@
         <v>110</v>
       </c>
       <c r="B45">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>111</v>
       </c>
       <c r="B46">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -9617,7 +9617,7 @@
         <v>112</v>
       </c>
       <c r="B47">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9628,7 +9628,7 @@
         <v>113</v>
       </c>
       <c r="B48">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -9639,7 +9639,7 @@
         <v>114</v>
       </c>
       <c r="B49">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -9650,7 +9650,7 @@
         <v>115</v>
       </c>
       <c r="B50">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -9661,7 +9661,7 @@
         <v>116</v>
       </c>
       <c r="B51" s="2">
-        <v>1163</v>
+        <v>1185</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -9672,10 +9672,10 @@
         <v>117</v>
       </c>
       <c r="B52">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9683,10 +9683,10 @@
         <v>118</v>
       </c>
       <c r="B53">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9694,10 +9694,10 @@
         <v>119</v>
       </c>
       <c r="B54" s="2">
-        <v>1832</v>
+        <v>1869</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9716,7 +9716,7 @@
         <v>121</v>
       </c>
       <c r="B56" s="2">
-        <v>1928</v>
+        <v>2045</v>
       </c>
       <c r="C56">
         <v>24</v>
@@ -9727,7 +9727,7 @@
         <v>122</v>
       </c>
       <c r="B57">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -9738,7 +9738,7 @@
         <v>123</v>
       </c>
       <c r="B58">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9749,7 +9749,7 @@
         <v>124</v>
       </c>
       <c r="B59">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>125</v>
       </c>
       <c r="B60">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -9771,7 +9771,7 @@
         <v>126</v>
       </c>
       <c r="B61">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -9782,7 +9782,7 @@
         <v>127</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>128</v>
       </c>
       <c r="B63" s="2">
-        <v>8720</v>
+        <v>9243</v>
       </c>
       <c r="C63">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9804,7 +9804,7 @@
         <v>129</v>
       </c>
       <c r="B64">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>130</v>
       </c>
       <c r="B65">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -9826,7 +9826,7 @@
         <v>131</v>
       </c>
       <c r="B66">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -9837,7 +9837,7 @@
         <v>132</v>
       </c>
       <c r="B67" s="2">
-        <v>1150</v>
+        <v>1199</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -9848,7 +9848,7 @@
         <v>133</v>
       </c>
       <c r="B68">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>134</v>
       </c>
       <c r="B69">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -9870,10 +9870,10 @@
         <v>135</v>
       </c>
       <c r="B70" s="2">
-        <v>1870</v>
+        <v>2021</v>
       </c>
       <c r="C70">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9881,7 +9881,7 @@
         <v>136</v>
       </c>
       <c r="B71">
-        <v>837</v>
+        <v>920</v>
       </c>
       <c r="C71">
         <v>13</v>
@@ -9892,10 +9892,10 @@
         <v>137</v>
       </c>
       <c r="B72">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9903,7 +9903,7 @@
         <v>138</v>
       </c>
       <c r="B73">
-        <v>777</v>
+        <v>902</v>
       </c>
       <c r="C73">
         <v>23</v>
@@ -9914,10 +9914,10 @@
         <v>139</v>
       </c>
       <c r="B74" s="2">
-        <v>3131</v>
+        <v>3285</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9925,7 +9925,7 @@
         <v>140</v>
       </c>
       <c r="B75">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -9936,10 +9936,10 @@
         <v>141</v>
       </c>
       <c r="B76">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9947,7 +9947,7 @@
         <v>142</v>
       </c>
       <c r="B77">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -9958,7 +9958,7 @@
         <v>143</v>
       </c>
       <c r="B78">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -9980,7 +9980,7 @@
         <v>145</v>
       </c>
       <c r="B80">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>146</v>
       </c>
       <c r="B81">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -10002,10 +10002,10 @@
         <v>147</v>
       </c>
       <c r="B82">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10013,10 +10013,10 @@
         <v>148</v>
       </c>
       <c r="B83" s="2">
-        <v>2682</v>
+        <v>3003</v>
       </c>
       <c r="C83">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10024,7 +10024,7 @@
         <v>149</v>
       </c>
       <c r="B84">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -10035,7 +10035,7 @@
         <v>150</v>
       </c>
       <c r="B85">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -10046,7 +10046,7 @@
         <v>151</v>
       </c>
       <c r="B86">
-        <v>310</v>
+        <v>481</v>
       </c>
       <c r="C86">
         <v>17</v>
@@ -10057,7 +10057,7 @@
         <v>152</v>
       </c>
       <c r="B87" s="2">
-        <v>1114</v>
+        <v>1262</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -10068,7 +10068,7 @@
         <v>153</v>
       </c>
       <c r="B88">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -10079,7 +10079,7 @@
         <v>41</v>
       </c>
       <c r="B89">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -10095,8 +10095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B048F-F861-4567-B73C-84E8892973E2}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10114,7 +10114,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="2">
-        <v>54079</v>
+        <v>58463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10122,7 +10122,7 @@
         <v>156</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10130,7 +10130,7 @@
         <v>157</v>
       </c>
       <c r="B4" s="2">
-        <v>4345</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10138,7 +10138,7 @@
         <v>158</v>
       </c>
       <c r="B5">
-        <v>802</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10146,7 +10146,7 @@
         <v>159</v>
       </c>
       <c r="B6">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10154,7 +10154,7 @@
         <v>160</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10162,7 +10162,7 @@
         <v>161</v>
       </c>
       <c r="B8">
-        <v>636</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10170,7 +10170,7 @@
         <v>162</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10178,7 +10178,7 @@
         <v>163</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10186,7 +10186,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10194,7 +10194,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="2">
-        <v>10434</v>
+        <v>11434</v>
       </c>
     </row>
   </sheetData>
@@ -10205,10 +10205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52992E52-EDFA-4E74-B139-5B09F4657C85}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D151"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10249,10 +10249,10 @@
         <v>245</v>
       </c>
       <c r="C3">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D3" s="2">
-        <v>19289</v>
+        <v>19290</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -10267,7 +10267,7 @@
         <v>890</v>
       </c>
       <c r="D4" s="2">
-        <v>20335</v>
+        <v>20336</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10281,7 +10281,7 @@
         <v>1341</v>
       </c>
       <c r="D5" s="2">
-        <v>21852</v>
+        <v>21853</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10295,7 +10295,7 @@
         <v>703</v>
       </c>
       <c r="D6" s="2">
-        <v>22855</v>
+        <v>22856</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10306,7 +10306,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D7" s="2">
         <v>24837</v>
@@ -10320,10 +10320,10 @@
         <v>56</v>
       </c>
       <c r="C8" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D8" s="2">
-        <v>26184</v>
+        <v>26185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10337,7 +10337,7 @@
         <v>1555</v>
       </c>
       <c r="D9" s="2">
-        <v>27847</v>
+        <v>27848</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10348,10 +10348,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="2">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D10" s="2">
-        <v>29311</v>
+        <v>29313</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10365,7 +10365,7 @@
         <v>1133</v>
       </c>
       <c r="D11" s="2">
-        <v>30490</v>
+        <v>30492</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10376,10 +10376,10 @@
         <v>90</v>
       </c>
       <c r="C12" s="2">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D12" s="2">
-        <v>32040</v>
+        <v>32043</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10393,7 +10393,7 @@
         <v>1373</v>
       </c>
       <c r="D13" s="2">
-        <v>33493</v>
+        <v>33496</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10407,7 +10407,7 @@
         <v>1738</v>
       </c>
       <c r="D14" s="2">
-        <v>35324</v>
+        <v>35327</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10418,10 +10418,10 @@
         <v>107</v>
       </c>
       <c r="C15" s="2">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D15" s="2">
-        <v>37082</v>
+        <v>37086</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10432,10 +10432,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="2">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D16" s="2">
-        <v>38706</v>
+        <v>38711</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10446,10 +10446,10 @@
         <v>56</v>
       </c>
       <c r="C17" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D17" s="2">
-        <v>39895</v>
+        <v>39901</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10463,7 +10463,7 @@
         <v>746</v>
       </c>
       <c r="D18" s="2">
-        <v>40680</v>
+        <v>40686</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10477,7 +10477,7 @@
         <v>1063</v>
       </c>
       <c r="D19" s="2">
-        <v>41871</v>
+        <v>41877</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10491,7 +10491,7 @@
         <v>1559</v>
       </c>
       <c r="D20" s="2">
-        <v>43567</v>
+        <v>43573</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10505,7 +10505,7 @@
         <v>1345</v>
       </c>
       <c r="D21" s="2">
-        <v>45022</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10519,7 +10519,7 @@
         <v>1340</v>
       </c>
       <c r="D22" s="2">
-        <v>46488</v>
+        <v>46494</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10533,7 +10533,7 @@
         <v>1357</v>
       </c>
       <c r="D23" s="2">
-        <v>47968</v>
+        <v>47974</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10547,7 +10547,7 @@
         <v>1165</v>
       </c>
       <c r="D24" s="2">
-        <v>49199</v>
+        <v>49205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10561,7 +10561,7 @@
         <v>716</v>
       </c>
       <c r="D25" s="2">
-        <v>50039</v>
+        <v>50045</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10575,7 +10575,7 @@
         <v>1535</v>
       </c>
       <c r="D26" s="2">
-        <v>51788</v>
+        <v>51794</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10586,10 +10586,10 @@
         <v>230</v>
       </c>
       <c r="C27" s="2">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="D27" s="2">
-        <v>53916</v>
+        <v>53923</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10603,7 +10603,7 @@
         <v>2273</v>
       </c>
       <c r="D28" s="2">
-        <v>56405</v>
+        <v>56412</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10614,10 +10614,10 @@
         <v>296</v>
       </c>
       <c r="C29" s="2">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="D29" s="2">
-        <v>59491</v>
+        <v>59501</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10631,7 +10631,7 @@
         <v>2447</v>
       </c>
       <c r="D30" s="2">
-        <v>62110</v>
+        <v>62120</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10642,10 +10642,10 @@
         <v>71</v>
       </c>
       <c r="C31" s="2">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D31" s="2">
-        <v>64674</v>
+        <v>64683</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10659,7 +10659,7 @@
         <v>1870</v>
       </c>
       <c r="D32" s="2">
-        <v>66693</v>
+        <v>66702</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10670,10 +10670,10 @@
         <v>268</v>
       </c>
       <c r="C33" s="2">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="D33" s="2">
-        <v>70038</v>
+        <v>70050</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10684,10 +10684,10 @@
         <v>253</v>
       </c>
       <c r="C34" s="2">
-        <v>6824</v>
+        <v>6826</v>
       </c>
       <c r="D34" s="2">
-        <v>77115</v>
+        <v>77129</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10698,10 +10698,10 @@
         <v>429</v>
       </c>
       <c r="C35" s="2">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="D35" s="2">
-        <v>81460</v>
+        <v>81476</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10715,7 +10715,7 @@
         <v>4206</v>
       </c>
       <c r="D36" s="2">
-        <v>85943</v>
+        <v>85959</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10726,10 +10726,10 @@
         <v>302</v>
       </c>
       <c r="C37" s="2">
-        <v>3534</v>
+        <v>3536</v>
       </c>
       <c r="D37" s="2">
-        <v>89779</v>
+        <v>89797</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10743,7 +10743,7 @@
         <v>3092</v>
       </c>
       <c r="D38" s="2">
-        <v>92941</v>
+        <v>92959</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10757,7 +10757,7 @@
         <v>3836</v>
       </c>
       <c r="D39" s="2">
-        <v>97008</v>
+        <v>97026</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10771,7 +10771,7 @@
         <v>2900</v>
       </c>
       <c r="D40" s="2">
-        <v>100174</v>
+        <v>100192</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10782,10 +10782,10 @@
         <v>323</v>
       </c>
       <c r="C41" s="2">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="D41" s="2">
-        <v>104653</v>
+        <v>104672</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10796,10 +10796,10 @@
         <v>336</v>
       </c>
       <c r="C42" s="2">
-        <v>4673</v>
+        <v>4674</v>
       </c>
       <c r="D42" s="2">
-        <v>109662</v>
+        <v>109682</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10810,10 +10810,10 @@
         <v>254</v>
       </c>
       <c r="C43" s="2">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="D43" s="2">
-        <v>114536</v>
+        <v>114557</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10827,7 +10827,7 @@
         <v>4679</v>
       </c>
       <c r="D44" s="2">
-        <v>119447</v>
+        <v>119468</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10838,10 +10838,10 @@
         <v>68</v>
       </c>
       <c r="C45" s="2">
-        <v>5228</v>
+        <v>5229</v>
       </c>
       <c r="D45" s="2">
-        <v>124743</v>
+        <v>124765</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10852,10 +10852,10 @@
         <v>278</v>
       </c>
       <c r="C46" s="2">
-        <v>5023</v>
+        <v>5025</v>
       </c>
       <c r="D46" s="2">
-        <v>130044</v>
+        <v>130068</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10869,7 +10869,7 @@
         <v>3661</v>
       </c>
       <c r="D47" s="2">
-        <v>134060</v>
+        <v>134084</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10883,7 +10883,7 @@
         <v>6994</v>
       </c>
       <c r="D48" s="2">
-        <v>141355</v>
+        <v>141379</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10894,10 +10894,10 @@
         <v>1074</v>
       </c>
       <c r="C49" s="2">
-        <v>5657</v>
+        <v>5658</v>
       </c>
       <c r="D49" s="2">
-        <v>148086</v>
+        <v>148111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10908,10 +10908,10 @@
         <v>548</v>
       </c>
       <c r="C50" s="2">
-        <v>8582</v>
+        <v>8583</v>
       </c>
       <c r="D50" s="2">
-        <v>157216</v>
+        <v>157242</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10922,10 +10922,10 @@
         <v>717</v>
       </c>
       <c r="C51" s="2">
-        <v>7248</v>
+        <v>7249</v>
       </c>
       <c r="D51" s="2">
-        <v>165181</v>
+        <v>165208</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10936,10 +10936,10 @@
         <v>232</v>
       </c>
       <c r="C52" s="2">
-        <v>5750</v>
+        <v>5749</v>
       </c>
       <c r="D52" s="2">
-        <v>171163</v>
+        <v>171189</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10950,10 +10950,10 @@
         <v>132</v>
       </c>
       <c r="C53" s="2">
-        <v>6256</v>
+        <v>6257</v>
       </c>
       <c r="D53" s="2">
-        <v>177551</v>
+        <v>177578</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10967,7 +10967,7 @@
         <v>5772</v>
       </c>
       <c r="D54" s="2">
-        <v>183924</v>
+        <v>183951</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10978,10 +10978,10 @@
         <v>531</v>
       </c>
       <c r="C55" s="2">
-        <v>6423</v>
+        <v>6424</v>
       </c>
       <c r="D55" s="2">
-        <v>190878</v>
+        <v>190906</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10995,7 +10995,7 @@
         <v>7861</v>
       </c>
       <c r="D56" s="2">
-        <v>199133</v>
+        <v>199161</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11006,10 +11006,10 @@
         <v>742</v>
       </c>
       <c r="C57" s="2">
-        <v>8979</v>
+        <v>8981</v>
       </c>
       <c r="D57" s="2">
-        <v>208854</v>
+        <v>208884</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11023,7 +11023,7 @@
         <v>7827</v>
       </c>
       <c r="D58" s="2">
-        <v>217750</v>
+        <v>217780</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11034,10 +11034,10 @@
         <v>86</v>
       </c>
       <c r="C59" s="2">
-        <v>6893</v>
+        <v>6895</v>
       </c>
       <c r="D59" s="2">
-        <v>224729</v>
+        <v>224761</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11048,10 +11048,10 @@
         <v>86</v>
       </c>
       <c r="C60" s="2">
-        <v>6560</v>
+        <v>6562</v>
       </c>
       <c r="D60" s="2">
-        <v>231375</v>
+        <v>231409</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11062,10 +11062,10 @@
         <v>162</v>
       </c>
       <c r="C61" s="2">
-        <v>6770</v>
+        <v>6774</v>
       </c>
       <c r="D61" s="2">
-        <v>238307</v>
+        <v>238345</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11076,10 +11076,10 @@
         <v>254</v>
       </c>
       <c r="C62" s="2">
-        <v>9272</v>
+        <v>9275</v>
       </c>
       <c r="D62" s="2">
-        <v>247833</v>
+        <v>247874</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11090,10 +11090,10 @@
         <v>652</v>
       </c>
       <c r="C63" s="2">
-        <v>9238</v>
+        <v>9242</v>
       </c>
       <c r="D63" s="2">
-        <v>257723</v>
+        <v>257768</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11104,10 +11104,10 @@
         <v>667</v>
       </c>
       <c r="C64" s="2">
-        <v>9710</v>
+        <v>9716</v>
       </c>
       <c r="D64" s="2">
-        <v>268100</v>
+        <v>268151</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11118,10 +11118,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>8437</v>
+        <v>8439</v>
       </c>
       <c r="D65" s="2">
-        <v>276537</v>
+        <v>276590</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11132,10 +11132,10 @@
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>6889</v>
+        <v>6890</v>
       </c>
       <c r="D66" s="2">
-        <v>283426</v>
+        <v>283480</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11146,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="D67" s="2">
-        <v>287608</v>
+        <v>287663</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11160,10 +11160,10 @@
         <v>1061</v>
       </c>
       <c r="C68" s="2">
-        <v>6619</v>
+        <v>6621</v>
       </c>
       <c r="D68" s="2">
-        <v>295288</v>
+        <v>295345</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11174,10 +11174,10 @@
         <v>653</v>
       </c>
       <c r="C69" s="2">
-        <v>15261</v>
+        <v>15262</v>
       </c>
       <c r="D69" s="2">
-        <v>311202</v>
+        <v>311260</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11185,13 +11185,13 @@
         <v>43986</v>
       </c>
       <c r="B70">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C70" s="2">
-        <v>10551</v>
+        <v>10558</v>
       </c>
       <c r="D70" s="2">
-        <v>322131</v>
+        <v>322197</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11202,10 +11202,10 @@
         <v>930</v>
       </c>
       <c r="C71" s="2">
-        <v>10105</v>
+        <v>10112</v>
       </c>
       <c r="D71" s="2">
-        <v>333166</v>
+        <v>333239</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11213,13 +11213,13 @@
         <v>43988</v>
       </c>
       <c r="B72" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C72" s="2">
-        <v>9310</v>
+        <v>9316</v>
       </c>
       <c r="D72" s="2">
-        <v>343562</v>
+        <v>343642</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11227,13 +11227,13 @@
         <v>43989</v>
       </c>
       <c r="B73">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C73" s="2">
-        <v>8761</v>
+        <v>8759</v>
       </c>
       <c r="D73" s="2">
-        <v>353057</v>
+        <v>353136</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11244,10 +11244,10 @@
         <v>44</v>
       </c>
       <c r="C74" s="2">
-        <v>7723</v>
+        <v>7725</v>
       </c>
       <c r="D74" s="2">
-        <v>360824</v>
+        <v>360905</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11258,10 +11258,10 @@
         <v>300</v>
       </c>
       <c r="C75" s="2">
-        <v>8576</v>
+        <v>8581</v>
       </c>
       <c r="D75" s="2">
-        <v>369700</v>
+        <v>369786</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11272,10 +11272,10 @@
         <v>674</v>
       </c>
       <c r="C76" s="2">
-        <v>11349</v>
+        <v>11346</v>
       </c>
       <c r="D76" s="2">
-        <v>381723</v>
+        <v>381806</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11283,13 +11283,13 @@
         <v>43993</v>
       </c>
       <c r="B77">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C77" s="2">
-        <v>12634</v>
+        <v>12632</v>
       </c>
       <c r="D77" s="2">
-        <v>395121</v>
+        <v>395203</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11300,10 +11300,10 @@
         <v>1031</v>
       </c>
       <c r="C78" s="2">
-        <v>11769</v>
+        <v>11774</v>
       </c>
       <c r="D78" s="2">
-        <v>407921</v>
+        <v>408008</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11311,13 +11311,13 @@
         <v>43995</v>
       </c>
       <c r="B79">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C79" s="2">
-        <v>8958</v>
+        <v>8962</v>
       </c>
       <c r="D79" s="2">
-        <v>417705</v>
+        <v>417798</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11328,10 +11328,10 @@
         <v>254</v>
       </c>
       <c r="C80" s="2">
-        <v>4773</v>
+        <v>4776</v>
       </c>
       <c r="D80" s="2">
-        <v>422732</v>
+        <v>422828</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11342,10 +11342,10 @@
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>6173</v>
+        <v>6176</v>
       </c>
       <c r="D81" s="2">
-        <v>428927</v>
+        <v>429026</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11356,10 +11356,10 @@
         <v>357</v>
       </c>
       <c r="C82" s="2">
-        <v>19141</v>
+        <v>19140</v>
       </c>
       <c r="D82" s="2">
-        <v>448425</v>
+        <v>448523</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11370,10 +11370,10 @@
         <v>486</v>
       </c>
       <c r="C83" s="2">
-        <v>12006</v>
+        <v>12013</v>
       </c>
       <c r="D83" s="2">
-        <v>460917</v>
+        <v>461022</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11381,13 +11381,13 @@
         <v>44000</v>
       </c>
       <c r="B84">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C84" s="2">
         <v>13263</v>
       </c>
       <c r="D84" s="2">
-        <v>475095</v>
+        <v>475201</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11398,10 +11398,10 @@
         <v>1113</v>
       </c>
       <c r="C85" s="2">
-        <v>15631</v>
+        <v>15635</v>
       </c>
       <c r="D85" s="2">
-        <v>491839</v>
+        <v>491949</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11409,13 +11409,13 @@
         <v>44002</v>
       </c>
       <c r="B86">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C86" s="2">
-        <v>11302</v>
+        <v>11304</v>
       </c>
       <c r="D86" s="2">
-        <v>503963</v>
+        <v>504076</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11423,13 +11423,13 @@
         <v>44003</v>
       </c>
       <c r="B87">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C87" s="2">
-        <v>8182</v>
+        <v>8184</v>
       </c>
       <c r="D87" s="2">
-        <v>512545</v>
+        <v>512661</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11440,10 +11440,10 @@
         <v>23</v>
       </c>
       <c r="C88" s="2">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="D88" s="2">
-        <v>519755</v>
+        <v>519870</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11454,10 +11454,10 @@
         <v>340</v>
       </c>
       <c r="C89" s="2">
-        <v>9350</v>
+        <v>9351</v>
       </c>
       <c r="D89" s="2">
-        <v>529445</v>
+        <v>529561</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11465,13 +11465,13 @@
         <v>44006</v>
       </c>
       <c r="B90">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C90" s="2">
-        <v>12034</v>
+        <v>12039</v>
       </c>
       <c r="D90" s="2">
-        <v>542254</v>
+        <v>542368</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11479,13 +11479,13 @@
         <v>44007</v>
       </c>
       <c r="B91" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C91" s="2">
-        <v>13543</v>
+        <v>13551</v>
       </c>
       <c r="D91" s="2">
-        <v>556853</v>
+        <v>556977</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11496,10 +11496,10 @@
         <v>459</v>
       </c>
       <c r="C92" s="2">
-        <v>12452</v>
+        <v>12460</v>
       </c>
       <c r="D92" s="2">
-        <v>569764</v>
+        <v>569896</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11510,10 +11510,10 @@
         <v>820</v>
       </c>
       <c r="C93" s="2">
-        <v>14052</v>
+        <v>14059</v>
       </c>
       <c r="D93" s="2">
-        <v>584636</v>
+        <v>584775</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11521,13 +11521,13 @@
         <v>44010</v>
       </c>
       <c r="B94">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C94" s="2">
-        <v>7340</v>
+        <v>7343</v>
       </c>
       <c r="D94" s="2">
-        <v>592162</v>
+        <v>592305</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11538,10 +11538,10 @@
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <v>12366</v>
+        <v>12358</v>
       </c>
       <c r="D95" s="2">
-        <v>604528</v>
+        <v>604663</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11552,10 +11552,10 @@
         <v>264</v>
       </c>
       <c r="C96" s="2">
-        <v>11681</v>
+        <v>11683</v>
       </c>
       <c r="D96" s="2">
-        <v>616473</v>
+        <v>616610</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11566,10 +11566,10 @@
         <v>465</v>
       </c>
       <c r="C97" s="2">
-        <v>13073</v>
+        <v>13074</v>
       </c>
       <c r="D97" s="2">
-        <v>630011</v>
+        <v>630149</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11580,10 +11580,10 @@
         <v>871</v>
       </c>
       <c r="C98" s="2">
-        <v>13809</v>
+        <v>13812</v>
       </c>
       <c r="D98" s="2">
-        <v>644691</v>
+        <v>644832</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11594,10 +11594,10 @@
         <v>409</v>
       </c>
       <c r="C99" s="2">
-        <v>13589</v>
+        <v>13590</v>
       </c>
       <c r="D99" s="2">
-        <v>658689</v>
+        <v>658831</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11608,10 +11608,10 @@
         <v>207</v>
       </c>
       <c r="C100" s="2">
-        <v>14198</v>
+        <v>14207</v>
       </c>
       <c r="D100" s="2">
-        <v>673094</v>
+        <v>673245</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11622,10 +11622,10 @@
         <v>32</v>
       </c>
       <c r="C101" s="2">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="D101" s="2">
-        <v>678749</v>
+        <v>678899</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11636,10 +11636,10 @@
         <v>0</v>
       </c>
       <c r="C102" s="2">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="D102" s="2">
-        <v>684643</v>
+        <v>684791</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11653,7 +11653,7 @@
         <v>7374</v>
       </c>
       <c r="D103" s="2">
-        <v>692244</v>
+        <v>692392</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11661,13 +11661,13 @@
         <v>44020</v>
       </c>
       <c r="B104">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C104" s="2">
-        <v>13417</v>
+        <v>13422</v>
       </c>
       <c r="D104" s="2">
-        <v>706168</v>
+        <v>706322</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11675,13 +11675,13 @@
         <v>44021</v>
       </c>
       <c r="B105" s="2">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C105" s="2">
-        <v>18058</v>
+        <v>18059</v>
       </c>
       <c r="D105" s="2">
-        <v>725373</v>
+        <v>725531</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11692,10 +11692,10 @@
         <v>458</v>
       </c>
       <c r="C106" s="2">
-        <v>15595</v>
+        <v>15605</v>
       </c>
       <c r="D106" s="2">
-        <v>741426</v>
+        <v>741594</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11703,13 +11703,13 @@
         <v>44023</v>
       </c>
       <c r="B107">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C107" s="2">
-        <v>14231</v>
+        <v>14235</v>
       </c>
       <c r="D107" s="2">
-        <v>756161</v>
+        <v>756334</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11720,10 +11720,10 @@
         <v>112</v>
       </c>
       <c r="C108" s="2">
-        <v>11894</v>
+        <v>11905</v>
       </c>
       <c r="D108" s="2">
-        <v>768167</v>
+        <v>768351</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11737,7 +11737,7 @@
         <v>8862</v>
       </c>
       <c r="D109" s="2">
-        <v>777059</v>
+        <v>777243</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11748,10 +11748,10 @@
         <v>223</v>
       </c>
       <c r="C110" s="2">
-        <v>12181</v>
+        <v>12179</v>
       </c>
       <c r="D110" s="2">
-        <v>789463</v>
+        <v>789645</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11759,13 +11759,13 @@
         <v>44027</v>
       </c>
       <c r="B111">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C111" s="2">
-        <v>14294</v>
+        <v>14299</v>
       </c>
       <c r="D111" s="2">
-        <v>804236</v>
+        <v>804424</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11773,13 +11773,13 @@
         <v>44028</v>
       </c>
       <c r="B112">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C112" s="2">
         <v>14034</v>
       </c>
       <c r="D112" s="2">
-        <v>818961</v>
+        <v>819151</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11790,10 +11790,10 @@
         <v>695</v>
       </c>
       <c r="C113" s="2">
-        <v>15845</v>
+        <v>15854</v>
       </c>
       <c r="D113" s="2">
-        <v>835501</v>
+        <v>835700</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11804,10 +11804,10 @@
         <v>392</v>
       </c>
       <c r="C114" s="2">
-        <v>16396</v>
+        <v>16397</v>
       </c>
       <c r="D114" s="2">
-        <v>852289</v>
+        <v>852489</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11818,10 +11818,10 @@
         <v>97</v>
       </c>
       <c r="C115" s="2">
-        <v>13938</v>
+        <v>13945</v>
       </c>
       <c r="D115" s="2">
-        <v>866324</v>
+        <v>866531</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="C116" s="2">
-        <v>9502</v>
+        <v>9506</v>
       </c>
       <c r="D116" s="2">
-        <v>875826</v>
+        <v>876037</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11846,10 +11846,10 @@
         <v>329</v>
       </c>
       <c r="C117" s="2">
-        <v>11927</v>
+        <v>11932</v>
       </c>
       <c r="D117" s="2">
-        <v>888082</v>
+        <v>888298</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11860,10 +11860,10 @@
         <v>687</v>
       </c>
       <c r="C118" s="2">
-        <v>15763</v>
+        <v>15768</v>
       </c>
       <c r="D118" s="2">
-        <v>904532</v>
+        <v>904753</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11871,13 +11871,13 @@
         <v>44035</v>
       </c>
       <c r="B119" s="2">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="C119" s="2">
-        <v>15685</v>
+        <v>15682</v>
       </c>
       <c r="D119" s="2">
-        <v>921272</v>
+        <v>921495</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11885,13 +11885,13 @@
         <v>44036</v>
       </c>
       <c r="B120">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C120" s="2">
-        <v>17247</v>
+        <v>17255</v>
       </c>
       <c r="D120" s="2">
-        <v>939302</v>
+        <v>939534</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11899,13 +11899,13 @@
         <v>44037</v>
       </c>
       <c r="B121">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C121" s="2">
-        <v>15806</v>
+        <v>15811</v>
       </c>
       <c r="D121" s="2">
-        <v>955541</v>
+        <v>955780</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11913,13 +11913,13 @@
         <v>44038</v>
       </c>
       <c r="B122">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C122" s="2">
-        <v>13248</v>
+        <v>13255</v>
       </c>
       <c r="D122" s="2">
-        <v>969070</v>
+        <v>969317</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11933,7 +11933,7 @@
         <v>9351</v>
       </c>
       <c r="D123" s="2">
-        <v>978439</v>
+        <v>978686</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11941,13 +11941,13 @@
         <v>44040</v>
       </c>
       <c r="B124">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C124" s="2">
-        <v>13155</v>
+        <v>13160</v>
       </c>
       <c r="D124" s="2">
-        <v>991938</v>
+        <v>992191</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11958,10 +11958,10 @@
         <v>659</v>
       </c>
       <c r="C125" s="2">
-        <v>14143</v>
+        <v>14146</v>
       </c>
       <c r="D125" s="2">
-        <v>1006740</v>
+        <v>1006996</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11969,13 +11969,13 @@
         <v>44042</v>
       </c>
       <c r="B126" s="2">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="C126" s="2">
         <v>15570</v>
       </c>
       <c r="D126" s="2">
-        <v>1023369</v>
+        <v>1023629</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11986,10 +11986,10 @@
         <v>509</v>
       </c>
       <c r="C127" s="2">
-        <v>14482</v>
+        <v>14484</v>
       </c>
       <c r="D127" s="2">
-        <v>1038360</v>
+        <v>1038622</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12000,10 +12000,10 @@
         <v>273</v>
       </c>
       <c r="C128" s="2">
-        <v>14890</v>
+        <v>14886</v>
       </c>
       <c r="D128" s="2">
-        <v>1053523</v>
+        <v>1053781</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12011,13 +12011,13 @@
         <v>44045</v>
       </c>
       <c r="B129">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C129" s="2">
-        <v>15326</v>
+        <v>15321</v>
       </c>
       <c r="D129" s="2">
-        <v>1069292</v>
+        <v>1069546</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12028,10 +12028,10 @@
         <v>13</v>
       </c>
       <c r="C130" s="2">
-        <v>8045</v>
+        <v>8047</v>
       </c>
       <c r="D130" s="2">
-        <v>1077350</v>
+        <v>1077606</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12039,13 +12039,13 @@
         <v>44047</v>
       </c>
       <c r="B131">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C131" s="2">
-        <v>11628</v>
+        <v>11632</v>
       </c>
       <c r="D131" s="2">
-        <v>1089253</v>
+        <v>1089514</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12053,13 +12053,13 @@
         <v>44048</v>
       </c>
       <c r="B132">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C132" s="2">
-        <v>14176</v>
+        <v>14182</v>
       </c>
       <c r="D132" s="2">
-        <v>1104191</v>
+        <v>1104460</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12067,13 +12067,13 @@
         <v>44049</v>
       </c>
       <c r="B133">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C133" s="2">
-        <v>15214</v>
+        <v>15217</v>
       </c>
       <c r="D133" s="2">
-        <v>1120097</v>
+        <v>1120370</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12084,10 +12084,10 @@
         <v>41</v>
       </c>
       <c r="C134" s="2">
-        <v>17713</v>
+        <v>17677</v>
       </c>
       <c r="D134" s="2">
-        <v>1137851</v>
+        <v>1138088</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12095,13 +12095,13 @@
         <v>44051</v>
       </c>
       <c r="B135">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C135" s="2">
-        <v>19236</v>
+        <v>19258</v>
       </c>
       <c r="D135" s="2">
-        <v>1157839</v>
+        <v>1158101</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12112,10 +12112,10 @@
         <v>330</v>
       </c>
       <c r="C136" s="2">
-        <v>12356</v>
+        <v>12344</v>
       </c>
       <c r="D136" s="2">
-        <v>1170525</v>
+        <v>1170775</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12126,10 +12126,10 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>6282</v>
+        <v>6283</v>
       </c>
       <c r="D137" s="2">
-        <v>1176829</v>
+        <v>1177080</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12140,10 +12140,10 @@
         <v>75</v>
       </c>
       <c r="C138" s="2">
-        <v>10877</v>
+        <v>10876</v>
       </c>
       <c r="D138" s="2">
-        <v>1187781</v>
+        <v>1188031</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12151,13 +12151,13 @@
         <v>44055</v>
       </c>
       <c r="B139">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C139" s="2">
-        <v>14263</v>
+        <v>14268</v>
       </c>
       <c r="D139" s="2">
-        <v>1202549</v>
+        <v>1202807</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12168,10 +12168,10 @@
         <v>483</v>
       </c>
       <c r="C140" s="2">
-        <v>16159</v>
+        <v>16168</v>
       </c>
       <c r="D140" s="2">
-        <v>1219191</v>
+        <v>1219458</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12182,10 +12182,10 @@
         <v>325</v>
       </c>
       <c r="C141" s="2">
-        <v>16791</v>
+        <v>16797</v>
       </c>
       <c r="D141" s="2">
-        <v>1236307</v>
+        <v>1236580</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12196,10 +12196,10 @@
         <v>115</v>
       </c>
       <c r="C142" s="2">
-        <v>16553</v>
+        <v>16562</v>
       </c>
       <c r="D142" s="2">
-        <v>1252975</v>
+        <v>1253257</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12210,10 +12210,10 @@
         <v>77</v>
       </c>
       <c r="C143" s="2">
-        <v>12629</v>
+        <v>12632</v>
       </c>
       <c r="D143" s="2">
-        <v>1265681</v>
+        <v>1265966</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12224,10 +12224,10 @@
         <v>316</v>
       </c>
       <c r="C144" s="2">
-        <v>7057</v>
+        <v>7048</v>
       </c>
       <c r="D144" s="2">
-        <v>1273054</v>
+        <v>1273330</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12235,13 +12235,13 @@
         <v>44061</v>
       </c>
       <c r="B145">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C145" s="2">
-        <v>34330</v>
+        <v>34277</v>
       </c>
       <c r="D145" s="2">
-        <v>1307808</v>
+        <v>1308034</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12249,13 +12249,13 @@
         <v>44062</v>
       </c>
       <c r="B146">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C146" s="2">
         <v>13474</v>
       </c>
       <c r="D146" s="2">
-        <v>1321625</v>
+        <v>1321852</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12263,13 +12263,13 @@
         <v>44063</v>
       </c>
       <c r="B147">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C147" s="2">
-        <v>18263</v>
+        <v>18271</v>
       </c>
       <c r="D147" s="2">
-        <v>1340436</v>
+        <v>1340672</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12280,10 +12280,10 @@
         <v>382</v>
       </c>
       <c r="C148" s="2">
-        <v>16319</v>
+        <v>16346</v>
       </c>
       <c r="D148" s="2">
-        <v>1357137</v>
+        <v>1357400</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12294,10 +12294,10 @@
         <v>186</v>
       </c>
       <c r="C149" s="2">
-        <v>16521</v>
+        <v>16544</v>
       </c>
       <c r="D149" s="2">
-        <v>1373844</v>
+        <v>1374130</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12305,13 +12305,13 @@
         <v>44066</v>
       </c>
       <c r="B150">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C150" s="2">
-        <v>12000</v>
+        <v>12030</v>
       </c>
       <c r="D150" s="2">
-        <v>1386128</v>
+        <v>1386447</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12322,10 +12322,108 @@
         <v>36</v>
       </c>
       <c r="C151" s="2">
-        <v>8822</v>
+        <v>8821</v>
       </c>
       <c r="D151" s="2">
-        <v>1394986</v>
+        <v>1395304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B152">
+        <v>403</v>
+      </c>
+      <c r="C152" s="2">
+        <v>10592</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1406299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B153">
+        <v>360</v>
+      </c>
+      <c r="C153" s="2">
+        <v>20814</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1427473</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B154">
+        <v>460</v>
+      </c>
+      <c r="C154" s="2">
+        <v>15875</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1443808</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B155">
+        <v>442</v>
+      </c>
+      <c r="C155" s="2">
+        <v>16667</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1460917</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B156">
+        <v>207</v>
+      </c>
+      <c r="C156" s="2">
+        <v>17283</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1478407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B157">
+        <v>466</v>
+      </c>
+      <c r="C157" s="2">
+        <v>10888</v>
+      </c>
+      <c r="D157" s="2">
+        <v>1489761</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" s="2">
+        <v>9158</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1498919</v>
       </c>
     </row>
   </sheetData>
@@ -12336,10 +12434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8873798-F11B-4B2E-980E-F5A7F4CD303A}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C174"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12943,10 +13041,10 @@
         <v>43948</v>
       </c>
       <c r="B55">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C55" s="2">
-        <v>6222</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12957,7 +13055,7 @@
         <v>605</v>
       </c>
       <c r="C56" s="2">
-        <v>6827</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12968,7 +13066,7 @@
         <v>682</v>
       </c>
       <c r="C57" s="2">
-        <v>7509</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12979,7 +13077,7 @@
         <v>648</v>
       </c>
       <c r="C58" s="2">
-        <v>8157</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12990,7 +13088,7 @@
         <v>623</v>
       </c>
       <c r="C59" s="2">
-        <v>8780</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13001,7 +13099,7 @@
         <v>335</v>
       </c>
       <c r="C60" s="2">
-        <v>9115</v>
+        <v>9116</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13012,7 +13110,7 @@
         <v>340</v>
       </c>
       <c r="C61" s="2">
-        <v>9455</v>
+        <v>9456</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13020,7 +13118,7 @@
         <v>43955</v>
       </c>
       <c r="B62">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C62" s="2">
         <v>10281</v>
@@ -13416,10 +13514,10 @@
         <v>43991</v>
       </c>
       <c r="B98">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C98" s="2">
-        <v>30103</v>
+        <v>30102</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13430,7 +13528,7 @@
         <v>406</v>
       </c>
       <c r="C99" s="2">
-        <v>30509</v>
+        <v>30508</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13438,10 +13536,10 @@
         <v>43993</v>
       </c>
       <c r="B100">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C100" s="2">
-        <v>30856</v>
+        <v>30854</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13452,7 +13550,7 @@
         <v>312</v>
       </c>
       <c r="C101" s="2">
-        <v>31168</v>
+        <v>31166</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13463,7 +13561,7 @@
         <v>153</v>
       </c>
       <c r="C102" s="2">
-        <v>31321</v>
+        <v>31319</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13474,7 +13572,7 @@
         <v>150</v>
       </c>
       <c r="C103" s="2">
-        <v>31471</v>
+        <v>31469</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13485,7 +13583,7 @@
         <v>415</v>
       </c>
       <c r="C104" s="2">
-        <v>31886</v>
+        <v>31884</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13496,7 +13594,7 @@
         <v>414</v>
       </c>
       <c r="C105" s="2">
-        <v>32300</v>
+        <v>32298</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13507,7 +13605,7 @@
         <v>429</v>
       </c>
       <c r="C106" s="2">
-        <v>32729</v>
+        <v>32727</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13518,7 +13616,7 @@
         <v>393</v>
       </c>
       <c r="C107" s="2">
-        <v>33122</v>
+        <v>33120</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13529,7 +13627,7 @@
         <v>348</v>
       </c>
       <c r="C108" s="2">
-        <v>33470</v>
+        <v>33468</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13540,7 +13638,7 @@
         <v>223</v>
       </c>
       <c r="C109" s="2">
-        <v>33693</v>
+        <v>33691</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13551,7 +13649,7 @@
         <v>198</v>
       </c>
       <c r="C110" s="2">
-        <v>33891</v>
+        <v>33889</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13562,7 +13660,7 @@
         <v>488</v>
       </c>
       <c r="C111" s="2">
-        <v>34379</v>
+        <v>34377</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13570,10 +13668,10 @@
         <v>44005</v>
       </c>
       <c r="B112">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C112" s="2">
-        <v>34971</v>
+        <v>34970</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13584,7 +13682,7 @@
         <v>516</v>
       </c>
       <c r="C113" s="2">
-        <v>35487</v>
+        <v>35486</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13595,7 +13693,7 @@
         <v>487</v>
       </c>
       <c r="C114" s="2">
-        <v>35974</v>
+        <v>35973</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13606,7 +13704,7 @@
         <v>529</v>
       </c>
       <c r="C115" s="2">
-        <v>36503</v>
+        <v>36502</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13617,7 +13715,7 @@
         <v>280</v>
       </c>
       <c r="C116" s="2">
-        <v>36783</v>
+        <v>36782</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13628,7 +13726,7 @@
         <v>244</v>
       </c>
       <c r="C117" s="2">
-        <v>37027</v>
+        <v>37026</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13636,7 +13734,7 @@
         <v>44011</v>
       </c>
       <c r="B118">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C118" s="2">
         <v>37628</v>
@@ -13735,10 +13833,10 @@
         <v>44020</v>
       </c>
       <c r="B127">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C127" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13746,7 +13844,7 @@
         <v>44021</v>
       </c>
       <c r="B128">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C128" s="2">
         <v>43235</v>
@@ -13757,10 +13855,10 @@
         <v>44022</v>
       </c>
       <c r="B129">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C129" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13771,7 +13869,7 @@
         <v>287</v>
       </c>
       <c r="C130" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13779,7 +13877,7 @@
         <v>44024</v>
       </c>
       <c r="B131">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C131" s="2">
         <v>44631</v>
@@ -13801,10 +13899,10 @@
         <v>44026</v>
       </c>
       <c r="B133">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C133" s="2">
-        <v>46193</v>
+        <v>46191</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13815,7 +13913,7 @@
         <v>797</v>
       </c>
       <c r="C134" s="2">
-        <v>46990</v>
+        <v>46988</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13826,7 +13924,7 @@
         <v>802</v>
       </c>
       <c r="C135" s="2">
-        <v>47792</v>
+        <v>47790</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13837,7 +13935,7 @@
         <v>677</v>
       </c>
       <c r="C136" s="2">
-        <v>48469</v>
+        <v>48467</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13845,10 +13943,10 @@
         <v>44030</v>
       </c>
       <c r="B137">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C137" s="2">
-        <v>48772</v>
+        <v>48769</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13859,7 +13957,7 @@
         <v>309</v>
       </c>
       <c r="C138" s="2">
-        <v>49081</v>
+        <v>49078</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13867,10 +13965,10 @@
         <v>44032</v>
       </c>
       <c r="B139">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C139" s="2">
-        <v>49906</v>
+        <v>49901</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13881,7 +13979,7 @@
         <v>727</v>
       </c>
       <c r="C140" s="2">
-        <v>50633</v>
+        <v>50628</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13892,7 +13990,7 @@
         <v>739</v>
       </c>
       <c r="C141" s="2">
-        <v>51372</v>
+        <v>51367</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13903,7 +14001,7 @@
         <v>849</v>
       </c>
       <c r="C142" s="2">
-        <v>52221</v>
+        <v>52216</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13911,10 +14009,10 @@
         <v>44036</v>
       </c>
       <c r="B143">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C143" s="2">
-        <v>53018</v>
+        <v>53014</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13922,10 +14020,10 @@
         <v>44037</v>
       </c>
       <c r="B144">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C144" s="2">
-        <v>53358</v>
+        <v>53355</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13933,10 +14031,10 @@
         <v>44038</v>
       </c>
       <c r="B145">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C145" s="2">
-        <v>53677</v>
+        <v>53675</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13944,10 +14042,10 @@
         <v>44039</v>
       </c>
       <c r="B146">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C146" s="2">
-        <v>54506</v>
+        <v>54503</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13958,7 +14056,7 @@
         <v>802</v>
       </c>
       <c r="C147" s="2">
-        <v>55308</v>
+        <v>55305</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13966,10 +14064,10 @@
         <v>44041</v>
       </c>
       <c r="B148">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C148" s="2">
-        <v>56104</v>
+        <v>56102</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13977,10 +14075,10 @@
         <v>44042</v>
       </c>
       <c r="B149">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C149" s="2">
-        <v>56892</v>
+        <v>56889</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13988,10 +14086,10 @@
         <v>44043</v>
       </c>
       <c r="B150">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C150" s="2">
-        <v>57594</v>
+        <v>57592</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14002,7 +14100,7 @@
         <v>449</v>
       </c>
       <c r="C151" s="2">
-        <v>58043</v>
+        <v>58041</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14010,10 +14108,10 @@
         <v>44045</v>
       </c>
       <c r="B152">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C152" s="2">
-        <v>58341</v>
+        <v>58340</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14021,10 +14119,10 @@
         <v>44046</v>
       </c>
       <c r="B153">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="C153" s="2">
-        <v>59153</v>
+        <v>59161</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14032,10 +14130,10 @@
         <v>44047</v>
       </c>
       <c r="B154">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C154" s="2">
-        <v>59910</v>
+        <v>59925</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14043,10 +14141,10 @@
         <v>44048</v>
       </c>
       <c r="B155">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C155" s="2">
-        <v>60578</v>
+        <v>60592</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14054,10 +14152,10 @@
         <v>44049</v>
       </c>
       <c r="B156">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C156" s="2">
-        <v>61291</v>
+        <v>61309</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14065,10 +14163,10 @@
         <v>44050</v>
       </c>
       <c r="B157">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C157" s="2">
-        <v>61968</v>
+        <v>61989</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14076,10 +14174,10 @@
         <v>44051</v>
       </c>
       <c r="B158">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C158" s="2">
-        <v>62342</v>
+        <v>62364</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14087,10 +14185,10 @@
         <v>44052</v>
       </c>
       <c r="B159">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C159" s="2">
-        <v>62657</v>
+        <v>62693</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14098,10 +14196,10 @@
         <v>44053</v>
       </c>
       <c r="B160">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="C160" s="2">
-        <v>63443</v>
+        <v>63499</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14109,10 +14207,10 @@
         <v>44054</v>
       </c>
       <c r="B161">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="C161" s="2">
-        <v>64129</v>
+        <v>64213</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14120,10 +14218,10 @@
         <v>44055</v>
       </c>
       <c r="B162">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="C162" s="2">
-        <v>64814</v>
+        <v>64927</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14131,10 +14229,10 @@
         <v>44056</v>
       </c>
       <c r="B163">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="C163" s="2">
-        <v>65490</v>
+        <v>65629</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14142,10 +14240,10 @@
         <v>44057</v>
       </c>
       <c r="B164">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="C164" s="2">
-        <v>66159</v>
+        <v>66325</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14153,10 +14251,10 @@
         <v>44058</v>
       </c>
       <c r="B165">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C165" s="2">
-        <v>66526</v>
+        <v>66693</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14167,7 +14265,7 @@
         <v>332</v>
       </c>
       <c r="C166" s="2">
-        <v>66858</v>
+        <v>67025</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14175,10 +14273,10 @@
         <v>44060</v>
       </c>
       <c r="B167">
-        <v>865</v>
+        <v>909</v>
       </c>
       <c r="C167" s="2">
-        <v>67723</v>
+        <v>67934</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14186,10 +14284,10 @@
         <v>44061</v>
       </c>
       <c r="B168">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="C168" s="2">
-        <v>68499</v>
+        <v>68745</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14197,10 +14295,10 @@
         <v>44062</v>
       </c>
       <c r="B169">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="C169" s="2">
-        <v>69183</v>
+        <v>69486</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14208,10 +14306,10 @@
         <v>44063</v>
       </c>
       <c r="B170">
-        <v>732</v>
+        <v>818</v>
       </c>
       <c r="C170" s="2">
-        <v>69915</v>
+        <v>70304</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14219,10 +14317,10 @@
         <v>44064</v>
       </c>
       <c r="B171">
-        <v>542</v>
+        <v>773</v>
       </c>
       <c r="C171" s="2">
-        <v>70457</v>
+        <v>71077</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14230,10 +14328,10 @@
         <v>44065</v>
       </c>
       <c r="B172">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="C172" s="2">
-        <v>70615</v>
+        <v>71434</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14241,10 +14339,10 @@
         <v>44066</v>
       </c>
       <c r="B173">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="C173" s="2">
-        <v>70697</v>
+        <v>71743</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14252,10 +14350,87 @@
         <v>44067</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>961</v>
       </c>
       <c r="C174" s="2">
-        <v>70701</v>
+        <v>72704</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B175">
+        <v>946</v>
+      </c>
+      <c r="C175" s="2">
+        <v>73650</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B176">
+        <v>926</v>
+      </c>
+      <c r="C176" s="2">
+        <v>74576</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B177">
+        <v>790</v>
+      </c>
+      <c r="C177" s="2">
+        <v>75366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B178">
+        <v>733</v>
+      </c>
+      <c r="C178" s="2">
+        <v>76099</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B179">
+        <v>171</v>
+      </c>
+      <c r="C179" s="2">
+        <v>76270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B180">
+        <v>73</v>
+      </c>
+      <c r="C180" s="2">
+        <v>76343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+      <c r="C181" s="2">
+        <v>76350</v>
       </c>
     </row>
   </sheetData>
@@ -14266,10 +14441,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C941E7-90B0-442F-AD33-BF86CD637602}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C159"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15444,9 +15619,6 @@
       <c r="A107" s="1">
         <v>44016</v>
       </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
       <c r="C107" s="2">
         <v>1466</v>
       </c>
@@ -16021,6 +16193,83 @@
       </c>
       <c r="C159" s="2">
         <v>1779</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B161">
+        <v>13</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1823</v>
       </c>
     </row>
   </sheetData>
@@ -16031,10 +16280,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27ACE1C-5B78-4231-82E4-395ECBDB675E}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17879,12 +18128,6 @@
       <c r="A109" s="1">
         <v>44016</v>
       </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
       <c r="D109" s="2">
         <v>4139</v>
       </c>
@@ -18774,6 +19017,125 @@
       </c>
       <c r="E161" s="2">
         <v>1791</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B162">
+        <v>134</v>
+      </c>
+      <c r="C162">
+        <v>170</v>
+      </c>
+      <c r="D162" s="2">
+        <v>6274</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B163">
+        <v>139</v>
+      </c>
+      <c r="C163">
+        <v>166</v>
+      </c>
+      <c r="D163" s="2">
+        <v>6326</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B164">
+        <v>137</v>
+      </c>
+      <c r="C164">
+        <v>164</v>
+      </c>
+      <c r="D164" s="2">
+        <v>6357</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B165">
+        <v>134</v>
+      </c>
+      <c r="C165">
+        <v>179</v>
+      </c>
+      <c r="D165" s="2">
+        <v>6411</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B166">
+        <v>136</v>
+      </c>
+      <c r="C166">
+        <v>179</v>
+      </c>
+      <c r="D166" s="2">
+        <v>6454</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B167">
+        <v>131</v>
+      </c>
+      <c r="C167">
+        <v>175</v>
+      </c>
+      <c r="D167" s="2">
+        <v>6480</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B168">
+        <v>136</v>
+      </c>
+      <c r="C168">
+        <v>158</v>
+      </c>
+      <c r="D168" s="2">
+        <v>6520</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1849</v>
       </c>
     </row>
   </sheetData>
@@ -18787,7 +19149,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C23"/>
+      <selection activeCell="A2" sqref="A2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18808,7 +19170,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>1401</v>
+        <v>1524</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -18819,7 +19181,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>1324</v>
+        <v>1428</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -18830,7 +19192,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>1954</v>
+        <v>2151</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18841,7 +19203,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>6032</v>
+        <v>6754</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18852,7 +19214,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>9079</v>
+        <v>10128</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -18863,7 +19225,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="2">
-        <v>7217</v>
+        <v>7678</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -18874,10 +19236,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="2">
-        <v>6688</v>
+        <v>7119</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18885,10 +19247,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>6061</v>
+        <v>6412</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18896,7 +19258,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>5284</v>
+        <v>5640</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -18907,7 +19269,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>4925</v>
+        <v>5297</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -18918,10 +19280,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="2">
-        <v>4817</v>
+        <v>5189</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18929,10 +19291,10 @@
         <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>4246</v>
+        <v>4587</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18940,10 +19302,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="2">
-        <v>3205</v>
+        <v>3463</v>
       </c>
       <c r="C14">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18951,10 +19313,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>2150</v>
+        <v>2302</v>
       </c>
       <c r="C15">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18962,10 +19324,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>1605</v>
+        <v>1735</v>
       </c>
       <c r="C16">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18973,10 +19335,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>1294</v>
+        <v>1387</v>
       </c>
       <c r="C17">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18984,10 +19346,10 @@
         <v>36</v>
       </c>
       <c r="B18" s="2">
-        <v>1190</v>
+        <v>1239</v>
       </c>
       <c r="C18">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -18995,10 +19357,10 @@
         <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>1034</v>
+        <v>1086</v>
       </c>
       <c r="C19">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19006,10 +19368,10 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="C20">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19017,10 +19379,10 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C21">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19028,7 +19390,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>32</v>
@@ -19039,7 +19401,7 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -19056,7 +19418,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19074,7 +19436,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2">
-        <v>36189</v>
+        <v>39170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19082,7 +19444,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2">
-        <v>33992</v>
+        <v>36642</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19090,7 +19452,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19098,7 +19460,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -19112,7 +19474,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19133,10 +19495,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2">
-        <v>29966</v>
+        <v>33469</v>
       </c>
       <c r="C2" s="2">
-        <v>1370</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19144,10 +19506,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="2">
-        <v>14388</v>
+        <v>15109</v>
       </c>
       <c r="C3">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19155,10 +19517,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2">
-        <v>4105</v>
+        <v>4292</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19166,10 +19528,10 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>576</v>
+        <v>622</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19177,7 +19539,7 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -19188,10 +19550,10 @@
         <v>52</v>
       </c>
       <c r="B7">
-        <v>900</v>
+        <v>959</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19199,10 +19561,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="2">
-        <v>1282</v>
+        <v>1334</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19210,10 +19572,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="2">
-        <v>12677</v>
+        <v>13254</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19221,10 +19583,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="2">
-        <v>6698</v>
+        <v>7198</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -19238,7 +19600,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19256,7 +19618,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="2">
-        <v>5599</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19264,7 +19626,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="2">
-        <v>9759</v>
+        <v>10181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19272,7 +19634,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>795</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19280,7 +19642,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19288,7 +19650,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2">
-        <v>2478</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19296,7 +19658,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="2">
-        <v>6863</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19304,7 +19666,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="2">
-        <v>15979</v>
+        <v>17399</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19312,7 +19674,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="2">
-        <v>18055</v>
+        <v>19580</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19320,7 +19682,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="2">
-        <v>10914</v>
+        <v>12064</v>
       </c>
     </row>
   </sheetData>

--- a/MN_covid.xlsx
+++ b/MN_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthj\Documents\pers\MN_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3746D86A-A049-495A-B848-F500B9D670A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2A9FF-286A-4E93-9977-BE404398AF70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="20994" windowHeight="11610" activeTab="4" xr2:uid="{955FBE10-6FF1-488B-85CB-533582D6E676}"/>
+    <workbookView xWindow="1830" yWindow="1350" windowWidth="20994" windowHeight="11610" activeTab="4" xr2:uid="{955FBE10-6FF1-488B-85CB-533582D6E676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9101,7 +9101,7 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9122,7 +9122,7 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9133,10 +9133,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2">
-        <v>4782</v>
+        <v>5396</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9144,7 +9144,7 @@
         <v>69</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -9155,10 +9155,10 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9166,7 +9166,7 @@
         <v>71</v>
       </c>
       <c r="B6">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -9177,7 +9177,7 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -9188,10 +9188,10 @@
         <v>73</v>
       </c>
       <c r="B8" s="2">
-        <v>1278</v>
+        <v>1507</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9199,7 +9199,7 @@
         <v>74</v>
       </c>
       <c r="B9">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -9210,7 +9210,7 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9221,10 +9221,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="2">
-        <v>1128</v>
+        <v>1274</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9232,7 +9232,7 @@
         <v>77</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -9243,7 +9243,7 @@
         <v>78</v>
       </c>
       <c r="B13">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9254,7 +9254,7 @@
         <v>79</v>
       </c>
       <c r="B14">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9264,8 +9264,8 @@
       <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="B15">
-        <v>893</v>
+      <c r="B15" s="2">
+        <v>1142</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -9276,7 +9276,7 @@
         <v>81</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>83</v>
       </c>
       <c r="B18">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9309,10 +9309,10 @@
         <v>84</v>
       </c>
       <c r="B19">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9320,10 +9320,10 @@
         <v>85</v>
       </c>
       <c r="B20" s="2">
-        <v>5973</v>
+        <v>6836</v>
       </c>
       <c r="C20">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9331,7 +9331,7 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>88</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>89</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -9375,10 +9375,10 @@
         <v>90</v>
       </c>
       <c r="B25">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9386,7 +9386,7 @@
         <v>91</v>
       </c>
       <c r="B26">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -9397,7 +9397,7 @@
         <v>92</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -9408,10 +9408,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="2">
-        <v>23209</v>
+        <v>24944</v>
       </c>
       <c r="C28">
-        <v>881</v>
+        <v>907</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9419,7 +9419,7 @@
         <v>94</v>
       </c>
       <c r="B29">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>95</v>
       </c>
       <c r="B30">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -9441,7 +9441,7 @@
         <v>96</v>
       </c>
       <c r="B31">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -9452,10 +9452,10 @@
         <v>97</v>
       </c>
       <c r="B32">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9463,7 +9463,7 @@
         <v>98</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9474,10 +9474,10 @@
         <v>99</v>
       </c>
       <c r="B34">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9485,10 +9485,10 @@
         <v>100</v>
       </c>
       <c r="B35">
-        <v>820</v>
+        <v>891</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9496,7 +9496,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -9518,7 +9518,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9540,10 +9540,10 @@
         <v>105</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9551,10 +9551,10 @@
         <v>106</v>
       </c>
       <c r="B41">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9562,7 +9562,7 @@
         <v>107</v>
       </c>
       <c r="B42">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>108</v>
       </c>
       <c r="B43">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9584,7 +9584,7 @@
         <v>109</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9595,10 +9595,10 @@
         <v>110</v>
       </c>
       <c r="B45">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9606,10 +9606,10 @@
         <v>111</v>
       </c>
       <c r="B46">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9617,10 +9617,10 @@
         <v>112</v>
       </c>
       <c r="B47">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9628,7 +9628,7 @@
         <v>113</v>
       </c>
       <c r="B48">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -9639,7 +9639,7 @@
         <v>114</v>
       </c>
       <c r="B49">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -9650,7 +9650,7 @@
         <v>115</v>
       </c>
       <c r="B50">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -9661,10 +9661,10 @@
         <v>116</v>
       </c>
       <c r="B51" s="2">
-        <v>1185</v>
+        <v>1238</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9672,7 +9672,7 @@
         <v>117</v>
       </c>
       <c r="B52">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -9683,10 +9683,10 @@
         <v>118</v>
       </c>
       <c r="B53">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9694,10 +9694,10 @@
         <v>119</v>
       </c>
       <c r="B54" s="2">
-        <v>1869</v>
+        <v>1906</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9705,7 +9705,7 @@
         <v>120</v>
       </c>
       <c r="B55">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>121</v>
       </c>
       <c r="B56" s="2">
-        <v>2045</v>
+        <v>2187</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9727,7 +9727,7 @@
         <v>122</v>
       </c>
       <c r="B57">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -9738,7 +9738,7 @@
         <v>123</v>
       </c>
       <c r="B58">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9749,7 +9749,7 @@
         <v>124</v>
       </c>
       <c r="B59">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>125</v>
       </c>
       <c r="B60">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -9771,7 +9771,7 @@
         <v>126</v>
       </c>
       <c r="B61">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -9782,7 +9782,7 @@
         <v>127</v>
       </c>
       <c r="B62">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>128</v>
       </c>
       <c r="B63" s="2">
-        <v>9243</v>
+        <v>10111</v>
       </c>
       <c r="C63">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9804,7 +9804,7 @@
         <v>129</v>
       </c>
       <c r="B64">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>130</v>
       </c>
       <c r="B65">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -9826,7 +9826,7 @@
         <v>131</v>
       </c>
       <c r="B66">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -9837,7 +9837,7 @@
         <v>132</v>
       </c>
       <c r="B67" s="2">
-        <v>1199</v>
+        <v>1264</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -9848,7 +9848,7 @@
         <v>133</v>
       </c>
       <c r="B68">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>134</v>
       </c>
       <c r="B69">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>135</v>
       </c>
       <c r="B70" s="2">
-        <v>2021</v>
+        <v>2279</v>
       </c>
       <c r="C70">
         <v>32</v>
@@ -9880,8 +9880,8 @@
       <c r="A71" t="s">
         <v>136</v>
       </c>
-      <c r="B71">
-        <v>920</v>
+      <c r="B71" s="2">
+        <v>1030</v>
       </c>
       <c r="C71">
         <v>13</v>
@@ -9892,7 +9892,7 @@
         <v>137</v>
       </c>
       <c r="B72">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -9902,11 +9902,11 @@
       <c r="A73" t="s">
         <v>138</v>
       </c>
-      <c r="B73">
-        <v>902</v>
+      <c r="B73" s="2">
+        <v>1161</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9914,10 +9914,10 @@
         <v>139</v>
       </c>
       <c r="B74" s="2">
-        <v>3285</v>
+        <v>3571</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -9925,7 +9925,7 @@
         <v>140</v>
       </c>
       <c r="B75">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -9936,7 +9936,7 @@
         <v>141</v>
       </c>
       <c r="B76">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -9947,7 +9947,7 @@
         <v>142</v>
       </c>
       <c r="B77">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -9958,7 +9958,7 @@
         <v>143</v>
       </c>
       <c r="B78">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -9969,7 +9969,7 @@
         <v>144</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -9980,7 +9980,7 @@
         <v>145</v>
       </c>
       <c r="B80">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>146</v>
       </c>
       <c r="B81">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -10002,10 +10002,10 @@
         <v>147</v>
       </c>
       <c r="B82">
-        <v>270</v>
+        <v>393</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10013,10 +10013,10 @@
         <v>148</v>
       </c>
       <c r="B83" s="2">
-        <v>3003</v>
+        <v>3407</v>
       </c>
       <c r="C83">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10024,7 +10024,7 @@
         <v>149</v>
       </c>
       <c r="B84">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -10035,7 +10035,7 @@
         <v>150</v>
       </c>
       <c r="B85">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -10046,7 +10046,7 @@
         <v>151</v>
       </c>
       <c r="B86">
-        <v>481</v>
+        <v>679</v>
       </c>
       <c r="C86">
         <v>17</v>
@@ -10057,10 +10057,10 @@
         <v>152</v>
       </c>
       <c r="B87" s="2">
-        <v>1262</v>
+        <v>1447</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10068,7 +10068,7 @@
         <v>153</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -10079,7 +10079,7 @@
         <v>41</v>
       </c>
       <c r="B89">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="2">
-        <v>58463</v>
+        <v>65523</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10122,7 +10122,7 @@
         <v>156</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10130,7 +10130,7 @@
         <v>157</v>
       </c>
       <c r="B4" s="2">
-        <v>4483</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10138,7 +10138,7 @@
         <v>158</v>
       </c>
       <c r="B5">
-        <v>832</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10146,7 +10146,7 @@
         <v>159</v>
       </c>
       <c r="B6">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10154,7 +10154,7 @@
         <v>160</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10162,7 +10162,7 @@
         <v>161</v>
       </c>
       <c r="B8">
-        <v>666</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10170,7 +10170,7 @@
         <v>162</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10178,7 +10178,7 @@
         <v>163</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10186,7 +10186,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10194,7 +10194,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="2">
-        <v>11434</v>
+        <v>12480</v>
       </c>
     </row>
   </sheetData>
@@ -10205,10 +10205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52992E52-EDFA-4E74-B139-5B09F4657C85}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10292,10 +10292,10 @@
         <v>300</v>
       </c>
       <c r="C6">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D6" s="2">
-        <v>22856</v>
+        <v>22855</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10306,7 +10306,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="D7" s="2">
         <v>24837</v>
@@ -10320,10 +10320,10 @@
         <v>56</v>
       </c>
       <c r="C8" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D8" s="2">
-        <v>26185</v>
+        <v>26184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10337,7 +10337,7 @@
         <v>1555</v>
       </c>
       <c r="D9" s="2">
-        <v>27848</v>
+        <v>27847</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10351,7 +10351,7 @@
         <v>1435</v>
       </c>
       <c r="D10" s="2">
-        <v>29313</v>
+        <v>29312</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10365,7 +10365,7 @@
         <v>1133</v>
       </c>
       <c r="D11" s="2">
-        <v>30492</v>
+        <v>30491</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10379,7 +10379,7 @@
         <v>1461</v>
       </c>
       <c r="D12" s="2">
-        <v>32043</v>
+        <v>32042</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10393,7 +10393,7 @@
         <v>1373</v>
       </c>
       <c r="D13" s="2">
-        <v>33496</v>
+        <v>33495</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10407,7 +10407,7 @@
         <v>1738</v>
       </c>
       <c r="D14" s="2">
-        <v>35327</v>
+        <v>35326</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10418,10 +10418,10 @@
         <v>107</v>
       </c>
       <c r="C15" s="2">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D15" s="2">
-        <v>37086</v>
+        <v>37084</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10435,7 +10435,7 @@
         <v>1532</v>
       </c>
       <c r="D16" s="2">
-        <v>38711</v>
+        <v>38709</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10449,7 +10449,7 @@
         <v>1134</v>
       </c>
       <c r="D17" s="2">
-        <v>39901</v>
+        <v>39899</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10463,7 +10463,7 @@
         <v>746</v>
       </c>
       <c r="D18" s="2">
-        <v>40686</v>
+        <v>40684</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10477,7 +10477,7 @@
         <v>1063</v>
       </c>
       <c r="D19" s="2">
-        <v>41877</v>
+        <v>41875</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10491,7 +10491,7 @@
         <v>1559</v>
       </c>
       <c r="D20" s="2">
-        <v>43573</v>
+        <v>43571</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10505,7 +10505,7 @@
         <v>1345</v>
       </c>
       <c r="D21" s="2">
-        <v>45028</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10519,7 +10519,7 @@
         <v>1340</v>
       </c>
       <c r="D22" s="2">
-        <v>46494</v>
+        <v>46492</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10533,7 +10533,7 @@
         <v>1357</v>
       </c>
       <c r="D23" s="2">
-        <v>47974</v>
+        <v>47972</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10547,7 +10547,7 @@
         <v>1165</v>
       </c>
       <c r="D24" s="2">
-        <v>49205</v>
+        <v>49203</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10561,7 +10561,7 @@
         <v>716</v>
       </c>
       <c r="D25" s="2">
-        <v>50045</v>
+        <v>50043</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10575,7 +10575,7 @@
         <v>1535</v>
       </c>
       <c r="D26" s="2">
-        <v>51794</v>
+        <v>51792</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10589,7 +10589,7 @@
         <v>1899</v>
       </c>
       <c r="D27" s="2">
-        <v>53923</v>
+        <v>53921</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10600,10 +10600,10 @@
         <v>216</v>
       </c>
       <c r="C28" s="2">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D28" s="2">
-        <v>56412</v>
+        <v>56411</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10614,7 +10614,7 @@
         <v>296</v>
       </c>
       <c r="C29" s="2">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D29" s="2">
         <v>59501</v>
@@ -10670,10 +10670,10 @@
         <v>268</v>
       </c>
       <c r="C33" s="2">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D33" s="2">
-        <v>70050</v>
+        <v>70051</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10684,10 +10684,10 @@
         <v>253</v>
       </c>
       <c r="C34" s="2">
-        <v>6826</v>
+        <v>6822</v>
       </c>
       <c r="D34" s="2">
-        <v>77129</v>
+        <v>77126</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10701,7 +10701,7 @@
         <v>3918</v>
       </c>
       <c r="D35" s="2">
-        <v>81476</v>
+        <v>81473</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10712,10 +10712,10 @@
         <v>277</v>
       </c>
       <c r="C36" s="2">
-        <v>4206</v>
+        <v>4208</v>
       </c>
       <c r="D36" s="2">
-        <v>85959</v>
+        <v>85958</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10729,7 +10729,7 @@
         <v>3536</v>
       </c>
       <c r="D37" s="2">
-        <v>89797</v>
+        <v>89796</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10743,7 +10743,7 @@
         <v>3092</v>
       </c>
       <c r="D38" s="2">
-        <v>92959</v>
+        <v>92958</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10754,7 +10754,7 @@
         <v>231</v>
       </c>
       <c r="C39" s="2">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="D39" s="2">
         <v>97026</v>
@@ -10866,10 +10866,10 @@
         <v>355</v>
       </c>
       <c r="C47" s="2">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="D47" s="2">
-        <v>134084</v>
+        <v>134083</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10880,7 +10880,7 @@
         <v>301</v>
       </c>
       <c r="C48" s="2">
-        <v>6994</v>
+        <v>6995</v>
       </c>
       <c r="D48" s="2">
         <v>141379</v>
@@ -10908,10 +10908,10 @@
         <v>548</v>
       </c>
       <c r="C50" s="2">
-        <v>8583</v>
+        <v>8681</v>
       </c>
       <c r="D50" s="2">
-        <v>157242</v>
+        <v>157340</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10922,10 +10922,10 @@
         <v>717</v>
       </c>
       <c r="C51" s="2">
-        <v>7249</v>
+        <v>7281</v>
       </c>
       <c r="D51" s="2">
-        <v>165208</v>
+        <v>165338</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10939,7 +10939,7 @@
         <v>5749</v>
       </c>
       <c r="D52" s="2">
-        <v>171189</v>
+        <v>171319</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10950,10 +10950,10 @@
         <v>132</v>
       </c>
       <c r="C53" s="2">
-        <v>6257</v>
+        <v>6256</v>
       </c>
       <c r="D53" s="2">
-        <v>177578</v>
+        <v>177707</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10967,7 +10967,7 @@
         <v>5772</v>
       </c>
       <c r="D54" s="2">
-        <v>183951</v>
+        <v>184080</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10981,7 +10981,7 @@
         <v>6424</v>
       </c>
       <c r="D55" s="2">
-        <v>190906</v>
+        <v>191035</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10992,10 +10992,10 @@
         <v>394</v>
       </c>
       <c r="C56" s="2">
-        <v>7861</v>
+        <v>7862</v>
       </c>
       <c r="D56" s="2">
-        <v>199161</v>
+        <v>199291</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11006,10 +11006,10 @@
         <v>742</v>
       </c>
       <c r="C57" s="2">
-        <v>8981</v>
+        <v>8979</v>
       </c>
       <c r="D57" s="2">
-        <v>208884</v>
+        <v>209012</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11020,10 +11020,10 @@
         <v>1069</v>
       </c>
       <c r="C58" s="2">
-        <v>7827</v>
+        <v>7828</v>
       </c>
       <c r="D58" s="2">
-        <v>217780</v>
+        <v>217909</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11034,10 +11034,10 @@
         <v>86</v>
       </c>
       <c r="C59" s="2">
-        <v>6895</v>
+        <v>6894</v>
       </c>
       <c r="D59" s="2">
-        <v>224761</v>
+        <v>224889</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11048,10 +11048,10 @@
         <v>86</v>
       </c>
       <c r="C60" s="2">
-        <v>6562</v>
+        <v>6563</v>
       </c>
       <c r="D60" s="2">
-        <v>231409</v>
+        <v>231538</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11065,7 +11065,7 @@
         <v>6774</v>
       </c>
       <c r="D61" s="2">
-        <v>238345</v>
+        <v>238474</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11076,10 +11076,10 @@
         <v>254</v>
       </c>
       <c r="C62" s="2">
-        <v>9275</v>
+        <v>9303</v>
       </c>
       <c r="D62" s="2">
-        <v>247874</v>
+        <v>248031</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11090,10 +11090,10 @@
         <v>652</v>
       </c>
       <c r="C63" s="2">
-        <v>9242</v>
+        <v>9296</v>
       </c>
       <c r="D63" s="2">
-        <v>257768</v>
+        <v>257979</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11104,10 +11104,10 @@
         <v>667</v>
       </c>
       <c r="C64" s="2">
-        <v>9716</v>
+        <v>9714</v>
       </c>
       <c r="D64" s="2">
-        <v>268151</v>
+        <v>268360</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11118,10 +11118,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>8439</v>
+        <v>8438</v>
       </c>
       <c r="D65" s="2">
-        <v>276590</v>
+        <v>276798</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11132,10 +11132,10 @@
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>6890</v>
+        <v>6888</v>
       </c>
       <c r="D66" s="2">
-        <v>283480</v>
+        <v>283686</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11146,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="D67" s="2">
-        <v>287663</v>
+        <v>287868</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11163,7 +11163,7 @@
         <v>6621</v>
       </c>
       <c r="D68" s="2">
-        <v>295345</v>
+        <v>295550</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11174,10 +11174,10 @@
         <v>653</v>
       </c>
       <c r="C69" s="2">
-        <v>15262</v>
+        <v>15261</v>
       </c>
       <c r="D69" s="2">
-        <v>311260</v>
+        <v>311464</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11188,10 +11188,10 @@
         <v>379</v>
       </c>
       <c r="C70" s="2">
-        <v>10558</v>
+        <v>10741</v>
       </c>
       <c r="D70" s="2">
-        <v>322197</v>
+        <v>322584</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11202,10 +11202,10 @@
         <v>930</v>
       </c>
       <c r="C71" s="2">
-        <v>10112</v>
+        <v>10228</v>
       </c>
       <c r="D71" s="2">
-        <v>333239</v>
+        <v>333742</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11213,13 +11213,13 @@
         <v>43988</v>
       </c>
       <c r="B72" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C72" s="2">
-        <v>9316</v>
+        <v>9468</v>
       </c>
       <c r="D72" s="2">
-        <v>343642</v>
+        <v>344296</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11230,10 +11230,10 @@
         <v>735</v>
       </c>
       <c r="C73" s="2">
-        <v>8759</v>
+        <v>8872</v>
       </c>
       <c r="D73" s="2">
-        <v>353136</v>
+        <v>353903</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11244,10 +11244,10 @@
         <v>44</v>
       </c>
       <c r="C74" s="2">
-        <v>7725</v>
+        <v>8136</v>
       </c>
       <c r="D74" s="2">
-        <v>360905</v>
+        <v>362083</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11258,10 +11258,10 @@
         <v>300</v>
       </c>
       <c r="C75" s="2">
-        <v>8581</v>
+        <v>8597</v>
       </c>
       <c r="D75" s="2">
-        <v>369786</v>
+        <v>370980</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11272,10 +11272,10 @@
         <v>674</v>
       </c>
       <c r="C76" s="2">
-        <v>11346</v>
+        <v>11397</v>
       </c>
       <c r="D76" s="2">
-        <v>381806</v>
+        <v>383051</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11286,10 +11286,10 @@
         <v>765</v>
       </c>
       <c r="C77" s="2">
-        <v>12632</v>
+        <v>12897</v>
       </c>
       <c r="D77" s="2">
-        <v>395203</v>
+        <v>396713</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11300,10 +11300,10 @@
         <v>1031</v>
       </c>
       <c r="C78" s="2">
-        <v>11774</v>
+        <v>11911</v>
       </c>
       <c r="D78" s="2">
-        <v>408008</v>
+        <v>409655</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11314,10 +11314,10 @@
         <v>828</v>
       </c>
       <c r="C79" s="2">
-        <v>8962</v>
+        <v>9173</v>
       </c>
       <c r="D79" s="2">
-        <v>417798</v>
+        <v>419656</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11328,10 +11328,10 @@
         <v>254</v>
       </c>
       <c r="C80" s="2">
-        <v>4776</v>
+        <v>4845</v>
       </c>
       <c r="D80" s="2">
-        <v>422828</v>
+        <v>424755</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11342,10 +11342,10 @@
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>6176</v>
+        <v>6431</v>
       </c>
       <c r="D81" s="2">
-        <v>429026</v>
+        <v>431208</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11356,10 +11356,10 @@
         <v>357</v>
       </c>
       <c r="C82" s="2">
-        <v>19140</v>
+        <v>19211</v>
       </c>
       <c r="D82" s="2">
-        <v>448523</v>
+        <v>450776</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11370,10 +11370,10 @@
         <v>486</v>
       </c>
       <c r="C83" s="2">
-        <v>12013</v>
+        <v>12177</v>
       </c>
       <c r="D83" s="2">
-        <v>461022</v>
+        <v>463439</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11384,10 +11384,10 @@
         <v>916</v>
       </c>
       <c r="C84" s="2">
-        <v>13263</v>
+        <v>13414</v>
       </c>
       <c r="D84" s="2">
-        <v>475201</v>
+        <v>477769</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11398,10 +11398,10 @@
         <v>1113</v>
       </c>
       <c r="C85" s="2">
-        <v>15635</v>
+        <v>15760</v>
       </c>
       <c r="D85" s="2">
-        <v>491949</v>
+        <v>494642</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11412,10 +11412,10 @@
         <v>823</v>
       </c>
       <c r="C86" s="2">
-        <v>11304</v>
+        <v>11532</v>
       </c>
       <c r="D86" s="2">
-        <v>504076</v>
+        <v>506997</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11426,10 +11426,10 @@
         <v>401</v>
       </c>
       <c r="C87" s="2">
-        <v>8184</v>
+        <v>8393</v>
       </c>
       <c r="D87" s="2">
-        <v>512661</v>
+        <v>515791</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11440,10 +11440,10 @@
         <v>23</v>
       </c>
       <c r="C88" s="2">
-        <v>7186</v>
+        <v>7358</v>
       </c>
       <c r="D88" s="2">
-        <v>519870</v>
+        <v>523172</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11454,10 +11454,10 @@
         <v>340</v>
       </c>
       <c r="C89" s="2">
-        <v>9351</v>
+        <v>9431</v>
       </c>
       <c r="D89" s="2">
-        <v>529561</v>
+        <v>532943</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11465,13 +11465,13 @@
         <v>44006</v>
       </c>
       <c r="B90">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="C90" s="2">
-        <v>12039</v>
+        <v>12193</v>
       </c>
       <c r="D90" s="2">
-        <v>542368</v>
+        <v>545883</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11482,10 +11482,10 @@
         <v>1058</v>
       </c>
       <c r="C91" s="2">
-        <v>13551</v>
+        <v>13693</v>
       </c>
       <c r="D91" s="2">
-        <v>556977</v>
+        <v>560634</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11496,10 +11496,10 @@
         <v>459</v>
       </c>
       <c r="C92" s="2">
-        <v>12460</v>
+        <v>12563</v>
       </c>
       <c r="D92" s="2">
-        <v>569896</v>
+        <v>573656</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11510,10 +11510,10 @@
         <v>820</v>
       </c>
       <c r="C93" s="2">
-        <v>14059</v>
+        <v>14298</v>
       </c>
       <c r="D93" s="2">
-        <v>584775</v>
+        <v>588774</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11524,10 +11524,10 @@
         <v>187</v>
       </c>
       <c r="C94" s="2">
-        <v>7343</v>
+        <v>7611</v>
       </c>
       <c r="D94" s="2">
-        <v>592305</v>
+        <v>596572</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11538,10 +11538,10 @@
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <v>12358</v>
+        <v>12434</v>
       </c>
       <c r="D95" s="2">
-        <v>604663</v>
+        <v>609006</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11552,10 +11552,10 @@
         <v>264</v>
       </c>
       <c r="C96" s="2">
-        <v>11683</v>
+        <v>11689</v>
       </c>
       <c r="D96" s="2">
-        <v>616610</v>
+        <v>620959</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11566,10 +11566,10 @@
         <v>465</v>
       </c>
       <c r="C97" s="2">
-        <v>13074</v>
+        <v>13165</v>
       </c>
       <c r="D97" s="2">
-        <v>630149</v>
+        <v>634589</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11580,10 +11580,10 @@
         <v>871</v>
       </c>
       <c r="C98" s="2">
-        <v>13812</v>
+        <v>13860</v>
       </c>
       <c r="D98" s="2">
-        <v>644832</v>
+        <v>649320</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11594,10 +11594,10 @@
         <v>409</v>
       </c>
       <c r="C99" s="2">
-        <v>13590</v>
+        <v>13736</v>
       </c>
       <c r="D99" s="2">
-        <v>658831</v>
+        <v>663465</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11608,10 +11608,10 @@
         <v>207</v>
       </c>
       <c r="C100" s="2">
-        <v>14207</v>
+        <v>14455</v>
       </c>
       <c r="D100" s="2">
-        <v>673245</v>
+        <v>678127</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11622,10 +11622,10 @@
         <v>32</v>
       </c>
       <c r="C101" s="2">
-        <v>5622</v>
+        <v>5959</v>
       </c>
       <c r="D101" s="2">
-        <v>678899</v>
+        <v>684118</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11636,10 +11636,10 @@
         <v>0</v>
       </c>
       <c r="C102" s="2">
-        <v>5892</v>
+        <v>5894</v>
       </c>
       <c r="D102" s="2">
-        <v>684791</v>
+        <v>690012</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11650,10 +11650,10 @@
         <v>227</v>
       </c>
       <c r="C103" s="2">
-        <v>7374</v>
+        <v>7373</v>
       </c>
       <c r="D103" s="2">
-        <v>692392</v>
+        <v>697612</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11664,10 +11664,10 @@
         <v>508</v>
       </c>
       <c r="C104" s="2">
-        <v>13422</v>
+        <v>13416</v>
       </c>
       <c r="D104" s="2">
-        <v>706322</v>
+        <v>711536</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11678,10 +11678,10 @@
         <v>1150</v>
       </c>
       <c r="C105" s="2">
-        <v>18059</v>
+        <v>18344</v>
       </c>
       <c r="D105" s="2">
-        <v>725531</v>
+        <v>731030</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11692,10 +11692,10 @@
         <v>458</v>
       </c>
       <c r="C106" s="2">
-        <v>15605</v>
+        <v>15731</v>
       </c>
       <c r="D106" s="2">
-        <v>741594</v>
+        <v>747219</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11706,10 +11706,10 @@
         <v>505</v>
       </c>
       <c r="C107" s="2">
-        <v>14235</v>
+        <v>14299</v>
       </c>
       <c r="D107" s="2">
-        <v>756334</v>
+        <v>762023</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11720,10 +11720,10 @@
         <v>112</v>
       </c>
       <c r="C108" s="2">
-        <v>11905</v>
+        <v>11957</v>
       </c>
       <c r="D108" s="2">
-        <v>768351</v>
+        <v>774092</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11734,10 +11734,10 @@
         <v>30</v>
       </c>
       <c r="C109" s="2">
-        <v>8862</v>
+        <v>8879</v>
       </c>
       <c r="D109" s="2">
-        <v>777243</v>
+        <v>783001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11748,10 +11748,10 @@
         <v>223</v>
       </c>
       <c r="C110" s="2">
-        <v>12179</v>
+        <v>12174</v>
       </c>
       <c r="D110" s="2">
-        <v>789645</v>
+        <v>795398</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11762,10 +11762,10 @@
         <v>480</v>
       </c>
       <c r="C111" s="2">
-        <v>14299</v>
+        <v>14389</v>
       </c>
       <c r="D111" s="2">
-        <v>804424</v>
+        <v>810267</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11776,10 +11776,10 @@
         <v>693</v>
       </c>
       <c r="C112" s="2">
-        <v>14034</v>
+        <v>14156</v>
       </c>
       <c r="D112" s="2">
-        <v>819151</v>
+        <v>825116</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11790,10 +11790,10 @@
         <v>695</v>
       </c>
       <c r="C113" s="2">
-        <v>15854</v>
+        <v>15924</v>
       </c>
       <c r="D113" s="2">
-        <v>835700</v>
+        <v>841735</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11801,13 +11801,13 @@
         <v>44030</v>
       </c>
       <c r="B114">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C114" s="2">
-        <v>16397</v>
+        <v>16610</v>
       </c>
       <c r="D114" s="2">
-        <v>852489</v>
+        <v>858734</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11818,10 +11818,10 @@
         <v>97</v>
       </c>
       <c r="C115" s="2">
-        <v>13945</v>
+        <v>14223</v>
       </c>
       <c r="D115" s="2">
-        <v>866531</v>
+        <v>873054</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="C116" s="2">
-        <v>9506</v>
+        <v>9651</v>
       </c>
       <c r="D116" s="2">
-        <v>876037</v>
+        <v>882705</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11846,10 +11846,10 @@
         <v>329</v>
       </c>
       <c r="C117" s="2">
-        <v>11932</v>
+        <v>12221</v>
       </c>
       <c r="D117" s="2">
-        <v>888298</v>
+        <v>895255</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11860,10 +11860,10 @@
         <v>687</v>
       </c>
       <c r="C118" s="2">
-        <v>15768</v>
+        <v>15906</v>
       </c>
       <c r="D118" s="2">
-        <v>904753</v>
+        <v>911848</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11874,10 +11874,10 @@
         <v>1060</v>
       </c>
       <c r="C119" s="2">
-        <v>15682</v>
+        <v>16034</v>
       </c>
       <c r="D119" s="2">
-        <v>921495</v>
+        <v>928942</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11888,10 +11888,10 @@
         <v>784</v>
       </c>
       <c r="C120" s="2">
-        <v>17255</v>
+        <v>17331</v>
       </c>
       <c r="D120" s="2">
-        <v>939534</v>
+        <v>947057</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11902,10 +11902,10 @@
         <v>435</v>
       </c>
       <c r="C121" s="2">
-        <v>15811</v>
+        <v>16113</v>
       </c>
       <c r="D121" s="2">
-        <v>955780</v>
+        <v>963605</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11916,10 +11916,10 @@
         <v>282</v>
       </c>
       <c r="C122" s="2">
-        <v>13255</v>
+        <v>13441</v>
       </c>
       <c r="D122" s="2">
-        <v>969317</v>
+        <v>977328</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11930,10 +11930,10 @@
         <v>18</v>
       </c>
       <c r="C123" s="2">
-        <v>9351</v>
+        <v>9629</v>
       </c>
       <c r="D123" s="2">
-        <v>978686</v>
+        <v>986975</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11944,10 +11944,10 @@
         <v>345</v>
       </c>
       <c r="C124" s="2">
-        <v>13160</v>
+        <v>13228</v>
       </c>
       <c r="D124" s="2">
-        <v>992191</v>
+        <v>1000548</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11958,10 +11958,10 @@
         <v>659</v>
       </c>
       <c r="C125" s="2">
-        <v>14146</v>
+        <v>14300</v>
       </c>
       <c r="D125" s="2">
-        <v>1006996</v>
+        <v>1015507</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11972,10 +11972,10 @@
         <v>1063</v>
       </c>
       <c r="C126" s="2">
-        <v>15570</v>
+        <v>15736</v>
       </c>
       <c r="D126" s="2">
-        <v>1023629</v>
+        <v>1032306</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11986,10 +11986,10 @@
         <v>509</v>
       </c>
       <c r="C127" s="2">
-        <v>14484</v>
+        <v>14803</v>
       </c>
       <c r="D127" s="2">
-        <v>1038622</v>
+        <v>1047618</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12000,10 +12000,10 @@
         <v>273</v>
       </c>
       <c r="C128" s="2">
-        <v>14886</v>
+        <v>15175</v>
       </c>
       <c r="D128" s="2">
-        <v>1053781</v>
+        <v>1063066</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12014,10 +12014,10 @@
         <v>444</v>
       </c>
       <c r="C129" s="2">
-        <v>15321</v>
+        <v>15619</v>
       </c>
       <c r="D129" s="2">
-        <v>1069546</v>
+        <v>1079129</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12028,10 +12028,10 @@
         <v>13</v>
       </c>
       <c r="C130" s="2">
-        <v>8047</v>
+        <v>8253</v>
       </c>
       <c r="D130" s="2">
-        <v>1077606</v>
+        <v>1087395</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12042,10 +12042,10 @@
         <v>276</v>
       </c>
       <c r="C131" s="2">
-        <v>11632</v>
+        <v>11679</v>
       </c>
       <c r="D131" s="2">
-        <v>1089514</v>
+        <v>1099350</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12056,10 +12056,10 @@
         <v>764</v>
       </c>
       <c r="C132" s="2">
-        <v>14182</v>
+        <v>14254</v>
       </c>
       <c r="D132" s="2">
-        <v>1104460</v>
+        <v>1114368</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12070,10 +12070,10 @@
         <v>693</v>
       </c>
       <c r="C133" s="2">
-        <v>15217</v>
+        <v>15352</v>
       </c>
       <c r="D133" s="2">
-        <v>1120370</v>
+        <v>1130413</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12084,10 +12084,10 @@
         <v>41</v>
       </c>
       <c r="C134" s="2">
-        <v>17677</v>
+        <v>17936</v>
       </c>
       <c r="D134" s="2">
-        <v>1138088</v>
+        <v>1148390</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12098,10 +12098,10 @@
         <v>755</v>
       </c>
       <c r="C135" s="2">
-        <v>19258</v>
+        <v>19592</v>
       </c>
       <c r="D135" s="2">
-        <v>1158101</v>
+        <v>1168737</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12112,10 +12112,10 @@
         <v>330</v>
       </c>
       <c r="C136" s="2">
-        <v>12344</v>
+        <v>12477</v>
       </c>
       <c r="D136" s="2">
-        <v>1170775</v>
+        <v>1181544</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12126,10 +12126,10 @@
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>6283</v>
+        <v>6466</v>
       </c>
       <c r="D137" s="2">
-        <v>1177080</v>
+        <v>1188032</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12140,10 +12140,10 @@
         <v>75</v>
       </c>
       <c r="C138" s="2">
-        <v>10876</v>
+        <v>10954</v>
       </c>
       <c r="D138" s="2">
-        <v>1188031</v>
+        <v>1199061</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12154,10 +12154,10 @@
         <v>508</v>
       </c>
       <c r="C139" s="2">
-        <v>14268</v>
+        <v>14498</v>
       </c>
       <c r="D139" s="2">
-        <v>1202807</v>
+        <v>1214067</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12168,10 +12168,10 @@
         <v>483</v>
       </c>
       <c r="C140" s="2">
-        <v>16168</v>
+        <v>16365</v>
       </c>
       <c r="D140" s="2">
-        <v>1219458</v>
+        <v>1230915</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12182,10 +12182,10 @@
         <v>325</v>
       </c>
       <c r="C141" s="2">
-        <v>16797</v>
+        <v>17061</v>
       </c>
       <c r="D141" s="2">
-        <v>1236580</v>
+        <v>1248301</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12196,10 +12196,10 @@
         <v>115</v>
       </c>
       <c r="C142" s="2">
-        <v>16562</v>
+        <v>16886</v>
       </c>
       <c r="D142" s="2">
-        <v>1253257</v>
+        <v>1265302</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12210,10 +12210,10 @@
         <v>77</v>
       </c>
       <c r="C143" s="2">
-        <v>12632</v>
+        <v>12886</v>
       </c>
       <c r="D143" s="2">
-        <v>1265966</v>
+        <v>1278265</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12224,10 +12224,10 @@
         <v>316</v>
       </c>
       <c r="C144" s="2">
-        <v>7048</v>
+        <v>7102</v>
       </c>
       <c r="D144" s="2">
-        <v>1273330</v>
+        <v>1285683</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12238,10 +12238,10 @@
         <v>427</v>
       </c>
       <c r="C145" s="2">
-        <v>34277</v>
+        <v>34192</v>
       </c>
       <c r="D145" s="2">
-        <v>1308034</v>
+        <v>1320302</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12252,10 +12252,10 @@
         <v>344</v>
       </c>
       <c r="C146" s="2">
-        <v>13474</v>
+        <v>13822</v>
       </c>
       <c r="D146" s="2">
-        <v>1321852</v>
+        <v>1334468</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12266,10 +12266,10 @@
         <v>549</v>
       </c>
       <c r="C147" s="2">
-        <v>18271</v>
+        <v>18508</v>
       </c>
       <c r="D147" s="2">
-        <v>1340672</v>
+        <v>1353525</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12280,10 +12280,10 @@
         <v>382</v>
       </c>
       <c r="C148" s="2">
-        <v>16346</v>
+        <v>16629</v>
       </c>
       <c r="D148" s="2">
-        <v>1357400</v>
+        <v>1370536</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12294,10 +12294,10 @@
         <v>186</v>
       </c>
       <c r="C149" s="2">
-        <v>16544</v>
+        <v>16781</v>
       </c>
       <c r="D149" s="2">
-        <v>1374130</v>
+        <v>1387503</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12308,10 +12308,10 @@
         <v>287</v>
       </c>
       <c r="C150" s="2">
-        <v>12030</v>
+        <v>12418</v>
       </c>
       <c r="D150" s="2">
-        <v>1386447</v>
+        <v>1400208</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12322,10 +12322,10 @@
         <v>36</v>
       </c>
       <c r="C151" s="2">
-        <v>8821</v>
+        <v>8882</v>
       </c>
       <c r="D151" s="2">
-        <v>1395304</v>
+        <v>1409126</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12336,10 +12336,10 @@
         <v>403</v>
       </c>
       <c r="C152" s="2">
-        <v>10592</v>
+        <v>10593</v>
       </c>
       <c r="D152" s="2">
-        <v>1406299</v>
+        <v>1420122</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12350,10 +12350,10 @@
         <v>360</v>
       </c>
       <c r="C153" s="2">
-        <v>20814</v>
+        <v>21135</v>
       </c>
       <c r="D153" s="2">
-        <v>1427473</v>
+        <v>1441617</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12364,10 +12364,10 @@
         <v>460</v>
       </c>
       <c r="C154" s="2">
-        <v>15875</v>
+        <v>16169</v>
       </c>
       <c r="D154" s="2">
-        <v>1443808</v>
+        <v>1458246</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12378,10 +12378,10 @@
         <v>442</v>
       </c>
       <c r="C155" s="2">
-        <v>16667</v>
+        <v>16974</v>
       </c>
       <c r="D155" s="2">
-        <v>1460917</v>
+        <v>1475662</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12392,10 +12392,10 @@
         <v>207</v>
       </c>
       <c r="C156" s="2">
-        <v>17283</v>
+        <v>17571</v>
       </c>
       <c r="D156" s="2">
-        <v>1478407</v>
+        <v>1493440</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12406,10 +12406,10 @@
         <v>466</v>
       </c>
       <c r="C157" s="2">
-        <v>10888</v>
+        <v>11325</v>
       </c>
       <c r="D157" s="2">
-        <v>1489761</v>
+        <v>1505231</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12420,10 +12420,192 @@
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>9158</v>
+        <v>9206</v>
       </c>
       <c r="D158" s="2">
-        <v>1498919</v>
+        <v>1514437</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B159">
+        <v>221</v>
+      </c>
+      <c r="C159" s="2">
+        <v>27488</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1542146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B160">
+        <v>294</v>
+      </c>
+      <c r="C160" s="2">
+        <v>13654</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1556094</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B161">
+        <v>672</v>
+      </c>
+      <c r="C161" s="2">
+        <v>18423</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1575189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B162">
+        <v>315</v>
+      </c>
+      <c r="C162" s="2">
+        <v>18678</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1594182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B163">
+        <v>369</v>
+      </c>
+      <c r="C163" s="2">
+        <v>16503</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1611054</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B164">
+        <v>101</v>
+      </c>
+      <c r="C164" s="2">
+        <v>15411</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1626566</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B165">
+        <v>11</v>
+      </c>
+      <c r="C165" s="2">
+        <v>7539</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1634116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B166">
+        <v>15</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5443</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1639574</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B167">
+        <v>467</v>
+      </c>
+      <c r="C167" s="2">
+        <v>7670</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1647711</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B168">
+        <v>617</v>
+      </c>
+      <c r="C168" s="2">
+        <v>17244</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1665572</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B169">
+        <v>337</v>
+      </c>
+      <c r="C169" s="2">
+        <v>20258</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1686167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B170">
+        <v>737</v>
+      </c>
+      <c r="C170" s="2">
+        <v>20723</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1707627</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B171">
+        <v>375</v>
+      </c>
+      <c r="C171" s="2">
+        <v>16777</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1724779</v>
       </c>
     </row>
   </sheetData>
@@ -12434,10 +12616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8873798-F11B-4B2E-980E-F5A7F4CD303A}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12766,10 +12948,10 @@
         <v>43923</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12780,7 +12962,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12788,10 +12970,10 @@
         <v>43925</v>
       </c>
       <c r="B32">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12802,7 +12984,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12810,10 +12992,10 @@
         <v>43927</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12824,7 +13006,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="2">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12835,7 +13017,7 @@
         <v>102</v>
       </c>
       <c r="C36" s="2">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12846,7 +13028,7 @@
         <v>103</v>
       </c>
       <c r="C37" s="2">
-        <v>1638</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12857,7 +13039,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="2">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12868,7 +13050,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="2">
-        <v>1807</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12876,10 +13058,10 @@
         <v>43933</v>
       </c>
       <c r="B40">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12887,7 +13069,7 @@
         <v>43934</v>
       </c>
       <c r="B41">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2">
         <v>2013</v>
@@ -12909,10 +13091,10 @@
         <v>43936</v>
       </c>
       <c r="B43">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C43" s="2">
-        <v>2325</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12920,10 +13102,10 @@
         <v>43937</v>
       </c>
       <c r="B44">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2">
-        <v>2496</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12931,10 +13113,10 @@
         <v>43938</v>
       </c>
       <c r="B45">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C45" s="2">
-        <v>2678</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12942,10 +13124,10 @@
         <v>43939</v>
       </c>
       <c r="B46">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2">
-        <v>2799</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12956,7 +13138,7 @@
         <v>126</v>
       </c>
       <c r="C47" s="2">
-        <v>2925</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12967,7 +13149,7 @@
         <v>277</v>
       </c>
       <c r="C48" s="2">
-        <v>3202</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12975,10 +13157,10 @@
         <v>43942</v>
       </c>
       <c r="B49">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C49" s="2">
-        <v>3464</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12986,10 +13168,10 @@
         <v>43943</v>
       </c>
       <c r="B50">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2">
-        <v>3773</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12997,10 +13179,10 @@
         <v>43944</v>
       </c>
       <c r="B51">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C51" s="2">
-        <v>4298</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13008,10 +13190,10 @@
         <v>43945</v>
       </c>
       <c r="B52">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C52" s="2">
-        <v>4817</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13019,10 +13201,10 @@
         <v>43946</v>
       </c>
       <c r="B53">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2">
-        <v>5156</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13033,7 +13215,7 @@
         <v>386</v>
       </c>
       <c r="C54" s="2">
-        <v>5542</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13041,10 +13223,10 @@
         <v>43948</v>
       </c>
       <c r="B55">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C55" s="2">
-        <v>6223</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13052,10 +13234,10 @@
         <v>43949</v>
       </c>
       <c r="B56">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C56" s="2">
-        <v>6828</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13063,10 +13245,10 @@
         <v>43950</v>
       </c>
       <c r="B57">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C57" s="2">
-        <v>7510</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13074,10 +13256,10 @@
         <v>43951</v>
       </c>
       <c r="B58">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C58" s="2">
-        <v>8158</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13088,7 +13270,7 @@
         <v>623</v>
       </c>
       <c r="C59" s="2">
-        <v>8781</v>
+        <v>8812</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13096,10 +13278,10 @@
         <v>43953</v>
       </c>
       <c r="B60">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2">
-        <v>9116</v>
+        <v>9148</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13107,10 +13289,10 @@
         <v>43954</v>
       </c>
       <c r="B61">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C61" s="2">
-        <v>9456</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13121,7 +13303,7 @@
         <v>825</v>
       </c>
       <c r="C62" s="2">
-        <v>10281</v>
+        <v>10312</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13132,7 +13314,7 @@
         <v>649</v>
       </c>
       <c r="C63" s="2">
-        <v>10930</v>
+        <v>10961</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13143,7 +13325,7 @@
         <v>642</v>
       </c>
       <c r="C64" s="2">
-        <v>11572</v>
+        <v>11603</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13151,10 +13333,10 @@
         <v>43958</v>
       </c>
       <c r="B65">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C65" s="2">
-        <v>12392</v>
+        <v>12422</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13165,7 +13347,7 @@
         <v>713</v>
       </c>
       <c r="C66" s="2">
-        <v>13105</v>
+        <v>13135</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13173,10 +13355,10 @@
         <v>43960</v>
       </c>
       <c r="B67">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C67" s="2">
-        <v>13386</v>
+        <v>13415</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13187,7 +13369,7 @@
         <v>230</v>
       </c>
       <c r="C68" s="2">
-        <v>13616</v>
+        <v>13645</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13195,10 +13377,10 @@
         <v>43962</v>
       </c>
       <c r="B69">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C69" s="2">
-        <v>14440</v>
+        <v>14466</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13209,7 +13391,7 @@
         <v>663</v>
       </c>
       <c r="C70" s="2">
-        <v>15103</v>
+        <v>15129</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13217,10 +13399,10 @@
         <v>43964</v>
       </c>
       <c r="B71">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C71" s="2">
-        <v>15838</v>
+        <v>15863</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13228,10 +13410,10 @@
         <v>43965</v>
       </c>
       <c r="B72">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C72" s="2">
-        <v>16633</v>
+        <v>16659</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13242,7 +13424,7 @@
         <v>796</v>
       </c>
       <c r="C73" s="2">
-        <v>17429</v>
+        <v>17455</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13253,7 +13435,7 @@
         <v>343</v>
       </c>
       <c r="C74" s="2">
-        <v>17772</v>
+        <v>17798</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13261,10 +13443,10 @@
         <v>43968</v>
       </c>
       <c r="B75">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C75" s="2">
-        <v>18083</v>
+        <v>18110</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13272,10 +13454,10 @@
         <v>43969</v>
       </c>
       <c r="B76">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C76" s="2">
-        <v>19055</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13283,10 +13465,10 @@
         <v>43970</v>
       </c>
       <c r="B77">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C77" s="2">
-        <v>19914</v>
+        <v>19938</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13294,10 +13476,10 @@
         <v>43971</v>
       </c>
       <c r="B78">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C78" s="2">
-        <v>20680</v>
+        <v>20705</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13305,10 +13487,10 @@
         <v>43972</v>
       </c>
       <c r="B79">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C79" s="2">
-        <v>21661</v>
+        <v>21689</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13316,10 +13498,10 @@
         <v>43973</v>
       </c>
       <c r="B80">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C80" s="2">
-        <v>22451</v>
+        <v>22480</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13330,7 +13512,7 @@
         <v>400</v>
       </c>
       <c r="C81" s="2">
-        <v>22851</v>
+        <v>22880</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13338,10 +13520,10 @@
         <v>43975</v>
       </c>
       <c r="B82">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C82" s="2">
-        <v>23210</v>
+        <v>23238</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13352,7 +13534,7 @@
         <v>412</v>
       </c>
       <c r="C83" s="2">
-        <v>23622</v>
+        <v>23650</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13360,10 +13542,10 @@
         <v>43977</v>
       </c>
       <c r="B84">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C84" s="2">
-        <v>24418</v>
+        <v>24451</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13371,10 +13553,10 @@
         <v>43978</v>
       </c>
       <c r="B85">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C85" s="2">
-        <v>25101</v>
+        <v>25133</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13382,10 +13564,10 @@
         <v>43979</v>
       </c>
       <c r="B86">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C86" s="2">
-        <v>25678</v>
+        <v>25708</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13393,10 +13575,10 @@
         <v>43980</v>
       </c>
       <c r="B87">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C87" s="2">
-        <v>26136</v>
+        <v>26167</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13407,7 +13589,7 @@
         <v>169</v>
       </c>
       <c r="C88" s="2">
-        <v>26305</v>
+        <v>26336</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13418,7 +13600,7 @@
         <v>143</v>
       </c>
       <c r="C89" s="2">
-        <v>26448</v>
+        <v>26479</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13426,10 +13608,10 @@
         <v>43983</v>
       </c>
       <c r="B90">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C90" s="2">
-        <v>27033</v>
+        <v>27063</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13437,10 +13619,10 @@
         <v>43984</v>
       </c>
       <c r="B91">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C91" s="2">
-        <v>27519</v>
+        <v>27550</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13448,10 +13630,10 @@
         <v>43985</v>
       </c>
       <c r="B92">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C92" s="2">
-        <v>28043</v>
+        <v>28075</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13459,10 +13641,10 @@
         <v>43986</v>
       </c>
       <c r="B93">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C93" s="2">
-        <v>28448</v>
+        <v>28481</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13473,7 +13655,7 @@
         <v>412</v>
       </c>
       <c r="C94" s="2">
-        <v>28860</v>
+        <v>28893</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13484,7 +13666,7 @@
         <v>163</v>
       </c>
       <c r="C95" s="2">
-        <v>29023</v>
+        <v>29056</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13495,7 +13677,7 @@
         <v>137</v>
       </c>
       <c r="C96" s="2">
-        <v>29160</v>
+        <v>29193</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13506,7 +13688,7 @@
         <v>482</v>
       </c>
       <c r="C97" s="2">
-        <v>29642</v>
+        <v>29675</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13514,10 +13696,10 @@
         <v>43991</v>
       </c>
       <c r="B98">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C98" s="2">
-        <v>30102</v>
+        <v>30134</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13525,10 +13707,10 @@
         <v>43992</v>
       </c>
       <c r="B99">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C99" s="2">
-        <v>30508</v>
+        <v>30538</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13539,7 +13721,7 @@
         <v>346</v>
       </c>
       <c r="C100" s="2">
-        <v>30854</v>
+        <v>30884</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13547,10 +13729,10 @@
         <v>43994</v>
       </c>
       <c r="B101">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C101" s="2">
-        <v>31166</v>
+        <v>31202</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13561,7 +13743,7 @@
         <v>153</v>
       </c>
       <c r="C102" s="2">
-        <v>31319</v>
+        <v>31355</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13572,7 +13754,7 @@
         <v>150</v>
       </c>
       <c r="C103" s="2">
-        <v>31469</v>
+        <v>31505</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13583,7 +13765,7 @@
         <v>415</v>
       </c>
       <c r="C104" s="2">
-        <v>31884</v>
+        <v>31920</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13594,7 +13776,7 @@
         <v>414</v>
       </c>
       <c r="C105" s="2">
-        <v>32298</v>
+        <v>32334</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13605,7 +13787,7 @@
         <v>429</v>
       </c>
       <c r="C106" s="2">
-        <v>32727</v>
+        <v>32763</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13613,10 +13795,10 @@
         <v>44000</v>
       </c>
       <c r="B107">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C107" s="2">
-        <v>33120</v>
+        <v>33155</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13627,7 +13809,7 @@
         <v>348</v>
       </c>
       <c r="C108" s="2">
-        <v>33468</v>
+        <v>33503</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13638,7 +13820,7 @@
         <v>223</v>
       </c>
       <c r="C109" s="2">
-        <v>33691</v>
+        <v>33726</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13649,7 +13831,7 @@
         <v>198</v>
       </c>
       <c r="C110" s="2">
-        <v>33889</v>
+        <v>33924</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13657,10 +13839,10 @@
         <v>44004</v>
       </c>
       <c r="B111">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C111" s="2">
-        <v>34377</v>
+        <v>34413</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13671,7 +13853,7 @@
         <v>593</v>
       </c>
       <c r="C112" s="2">
-        <v>34970</v>
+        <v>35006</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13682,7 +13864,7 @@
         <v>516</v>
       </c>
       <c r="C113" s="2">
-        <v>35486</v>
+        <v>35522</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13690,10 +13872,10 @@
         <v>44007</v>
       </c>
       <c r="B114">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C114" s="2">
-        <v>35973</v>
+        <v>36010</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13704,7 +13886,7 @@
         <v>529</v>
       </c>
       <c r="C115" s="2">
-        <v>36502</v>
+        <v>36539</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13715,7 +13897,7 @@
         <v>280</v>
       </c>
       <c r="C116" s="2">
-        <v>36782</v>
+        <v>36819</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13726,7 +13908,7 @@
         <v>244</v>
       </c>
       <c r="C117" s="2">
-        <v>37026</v>
+        <v>37063</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13734,10 +13916,10 @@
         <v>44011</v>
       </c>
       <c r="B118">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C118" s="2">
-        <v>37628</v>
+        <v>37667</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13745,10 +13927,10 @@
         <v>44012</v>
       </c>
       <c r="B119">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="C119" s="2">
-        <v>38220</v>
+        <v>38268</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13756,10 +13938,10 @@
         <v>44013</v>
       </c>
       <c r="B120">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C120" s="2">
-        <v>38857</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13770,7 +13952,7 @@
         <v>573</v>
       </c>
       <c r="C121" s="2">
-        <v>39430</v>
+        <v>39480</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13781,7 +13963,7 @@
         <v>424</v>
       </c>
       <c r="C122" s="2">
-        <v>39854</v>
+        <v>39904</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13792,7 +13974,7 @@
         <v>101</v>
       </c>
       <c r="C123" s="2">
-        <v>39955</v>
+        <v>40005</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13803,7 +13985,7 @@
         <v>280</v>
       </c>
       <c r="C124" s="2">
-        <v>40235</v>
+        <v>40285</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13811,10 +13993,10 @@
         <v>44018</v>
       </c>
       <c r="B125">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="C125" s="2">
-        <v>40999</v>
+        <v>41065</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13822,10 +14004,10 @@
         <v>44019</v>
       </c>
       <c r="B126">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="C126" s="2">
-        <v>41702</v>
+        <v>41787</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13833,10 +14015,10 @@
         <v>44020</v>
       </c>
       <c r="B127">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="C127" s="2">
-        <v>42490</v>
+        <v>42593</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13844,10 +14026,10 @@
         <v>44021</v>
       </c>
       <c r="B128">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="C128" s="2">
-        <v>43235</v>
+        <v>43365</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13855,10 +14037,10 @@
         <v>44022</v>
       </c>
       <c r="B129">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="C129" s="2">
-        <v>43992</v>
+        <v>44143</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13866,10 +14048,10 @@
         <v>44023</v>
       </c>
       <c r="B130">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C130" s="2">
-        <v>44279</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13877,10 +14059,10 @@
         <v>44024</v>
       </c>
       <c r="B131">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C131" s="2">
-        <v>44631</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13888,10 +14070,10 @@
         <v>44025</v>
       </c>
       <c r="B132">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="C132" s="2">
-        <v>45381</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13899,10 +14081,10 @@
         <v>44026</v>
       </c>
       <c r="B133">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="C133" s="2">
-        <v>46191</v>
+        <v>46385</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13910,10 +14092,10 @@
         <v>44027</v>
       </c>
       <c r="B134">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="C134" s="2">
-        <v>46988</v>
+        <v>47197</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13921,10 +14103,10 @@
         <v>44028</v>
       </c>
       <c r="B135">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="C135" s="2">
-        <v>47790</v>
+        <v>48016</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13932,10 +14114,10 @@
         <v>44029</v>
       </c>
       <c r="B136">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="C136" s="2">
-        <v>48467</v>
+        <v>48722</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13943,10 +14125,10 @@
         <v>44030</v>
       </c>
       <c r="B137">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C137" s="2">
-        <v>48769</v>
+        <v>49026</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13954,10 +14136,10 @@
         <v>44031</v>
       </c>
       <c r="B138">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C138" s="2">
-        <v>49078</v>
+        <v>49340</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13965,10 +14147,10 @@
         <v>44032</v>
       </c>
       <c r="B139">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="C139" s="2">
-        <v>49901</v>
+        <v>50192</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13976,10 +14158,10 @@
         <v>44033</v>
       </c>
       <c r="B140">
-        <v>727</v>
+        <v>766</v>
       </c>
       <c r="C140" s="2">
-        <v>50628</v>
+        <v>50958</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13987,10 +14169,10 @@
         <v>44034</v>
       </c>
       <c r="B141">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="C141" s="2">
-        <v>51367</v>
+        <v>51721</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13998,10 +14180,10 @@
         <v>44035</v>
       </c>
       <c r="B142">
-        <v>849</v>
+        <v>882</v>
       </c>
       <c r="C142" s="2">
-        <v>52216</v>
+        <v>52603</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14009,10 +14191,10 @@
         <v>44036</v>
       </c>
       <c r="B143">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="C143" s="2">
-        <v>53014</v>
+        <v>53426</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14023,7 +14205,7 @@
         <v>341</v>
       </c>
       <c r="C144" s="2">
-        <v>53355</v>
+        <v>53767</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14034,7 +14216,7 @@
         <v>320</v>
       </c>
       <c r="C145" s="2">
-        <v>53675</v>
+        <v>54087</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14042,10 +14224,10 @@
         <v>44039</v>
       </c>
       <c r="B146">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="C146" s="2">
-        <v>54503</v>
+        <v>54940</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14053,10 +14235,10 @@
         <v>44040</v>
       </c>
       <c r="B147">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="C147" s="2">
-        <v>55305</v>
+        <v>55764</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14064,10 +14246,10 @@
         <v>44041</v>
       </c>
       <c r="B148">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="C148" s="2">
-        <v>56102</v>
+        <v>56585</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14075,10 +14257,10 @@
         <v>44042</v>
       </c>
       <c r="B149">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="C149" s="2">
-        <v>56889</v>
+        <v>57387</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14086,10 +14268,10 @@
         <v>44043</v>
       </c>
       <c r="B150">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="C150" s="2">
-        <v>57592</v>
+        <v>58108</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14097,10 +14279,10 @@
         <v>44044</v>
       </c>
       <c r="B151">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C151" s="2">
-        <v>58041</v>
+        <v>58558</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14108,10 +14290,10 @@
         <v>44045</v>
       </c>
       <c r="B152">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C152" s="2">
-        <v>58340</v>
+        <v>58855</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14119,10 +14301,10 @@
         <v>44046</v>
       </c>
       <c r="B153">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="C153" s="2">
-        <v>59161</v>
+        <v>59705</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14130,10 +14312,10 @@
         <v>44047</v>
       </c>
       <c r="B154">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="C154" s="2">
-        <v>59925</v>
+        <v>60496</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14141,10 +14323,10 @@
         <v>44048</v>
       </c>
       <c r="B155">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="C155" s="2">
-        <v>60592</v>
+        <v>61183</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14152,10 +14334,10 @@
         <v>44049</v>
       </c>
       <c r="B156">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="C156" s="2">
-        <v>61309</v>
+        <v>61917</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14163,10 +14345,10 @@
         <v>44050</v>
       </c>
       <c r="B157">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="C157" s="2">
-        <v>61989</v>
+        <v>62621</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14174,10 +14356,10 @@
         <v>44051</v>
       </c>
       <c r="B158">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C158" s="2">
-        <v>62364</v>
+        <v>62997</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14185,10 +14367,10 @@
         <v>44052</v>
       </c>
       <c r="B159">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C159" s="2">
-        <v>62693</v>
+        <v>63325</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14196,10 +14378,10 @@
         <v>44053</v>
       </c>
       <c r="B160">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="C160" s="2">
-        <v>63499</v>
+        <v>64139</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14207,10 +14389,10 @@
         <v>44054</v>
       </c>
       <c r="B161">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C161" s="2">
-        <v>64213</v>
+        <v>64858</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14218,10 +14400,10 @@
         <v>44055</v>
       </c>
       <c r="B162">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C162" s="2">
-        <v>64927</v>
+        <v>65577</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14229,10 +14411,10 @@
         <v>44056</v>
       </c>
       <c r="B163">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C163" s="2">
-        <v>65629</v>
+        <v>66277</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14240,10 +14422,10 @@
         <v>44057</v>
       </c>
       <c r="B164">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C164" s="2">
-        <v>66325</v>
+        <v>66975</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14254,7 +14436,7 @@
         <v>368</v>
       </c>
       <c r="C165" s="2">
-        <v>66693</v>
+        <v>67343</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14262,10 +14444,10 @@
         <v>44059</v>
       </c>
       <c r="B166">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C166" s="2">
-        <v>67025</v>
+        <v>67676</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14273,10 +14455,10 @@
         <v>44060</v>
       </c>
       <c r="B167">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="C167" s="2">
-        <v>67934</v>
+        <v>68596</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14287,7 +14469,7 @@
         <v>811</v>
       </c>
       <c r="C168" s="2">
-        <v>68745</v>
+        <v>69407</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14295,10 +14477,10 @@
         <v>44062</v>
       </c>
       <c r="B169">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C169" s="2">
-        <v>69486</v>
+        <v>70152</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14306,10 +14488,10 @@
         <v>44063</v>
       </c>
       <c r="B170">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C170" s="2">
-        <v>70304</v>
+        <v>70974</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14317,10 +14499,10 @@
         <v>44064</v>
       </c>
       <c r="B171">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C171" s="2">
-        <v>71077</v>
+        <v>71758</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14328,10 +14510,10 @@
         <v>44065</v>
       </c>
       <c r="B172">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C172" s="2">
-        <v>71434</v>
+        <v>72119</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14339,10 +14521,10 @@
         <v>44066</v>
       </c>
       <c r="B173">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C173" s="2">
-        <v>71743</v>
+        <v>72432</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14350,10 +14532,10 @@
         <v>44067</v>
       </c>
       <c r="B174">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="C174" s="2">
-        <v>72704</v>
+        <v>73404</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14361,10 +14543,10 @@
         <v>44068</v>
       </c>
       <c r="B175">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="C175" s="2">
-        <v>73650</v>
+        <v>74374</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14372,10 +14554,10 @@
         <v>44069</v>
       </c>
       <c r="B176">
-        <v>926</v>
+        <v>951</v>
       </c>
       <c r="C176" s="2">
-        <v>74576</v>
+        <v>75325</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14383,10 +14565,10 @@
         <v>44070</v>
       </c>
       <c r="B177">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="C177" s="2">
-        <v>75366</v>
+        <v>76147</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14394,10 +14576,10 @@
         <v>44071</v>
       </c>
       <c r="B178">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="C178" s="2">
-        <v>76099</v>
+        <v>76978</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14405,10 +14587,10 @@
         <v>44072</v>
       </c>
       <c r="B179">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="C179" s="2">
-        <v>76270</v>
+        <v>77344</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14416,10 +14598,10 @@
         <v>44073</v>
       </c>
       <c r="B180">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="C180" s="2">
-        <v>76343</v>
+        <v>77674</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -14427,10 +14609,153 @@
         <v>44074</v>
       </c>
       <c r="B181">
-        <v>7</v>
+        <v>907</v>
       </c>
       <c r="C181" s="2">
-        <v>76350</v>
+        <v>78581</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B182">
+        <v>794</v>
+      </c>
+      <c r="C182" s="2">
+        <v>79375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B183">
+        <v>776</v>
+      </c>
+      <c r="C183" s="2">
+        <v>80151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B184">
+        <v>713</v>
+      </c>
+      <c r="C184" s="2">
+        <v>80864</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B185">
+        <v>634</v>
+      </c>
+      <c r="C185" s="2">
+        <v>81498</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B186">
+        <v>315</v>
+      </c>
+      <c r="C186" s="2">
+        <v>81813</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B187">
+        <v>273</v>
+      </c>
+      <c r="C187" s="2">
+        <v>82086</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B188">
+        <v>192</v>
+      </c>
+      <c r="C188" s="2">
+        <v>82278</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B189">
+        <v>888</v>
+      </c>
+      <c r="C189" s="2">
+        <v>83166</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B190">
+        <v>745</v>
+      </c>
+      <c r="C190" s="2">
+        <v>83911</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B191">
+        <v>580</v>
+      </c>
+      <c r="C191" s="2">
+        <v>84491</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B192">
+        <v>367</v>
+      </c>
+      <c r="C192" s="2">
+        <v>84858</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B193">
+        <v>86</v>
+      </c>
+      <c r="C193" s="2">
+        <v>84944</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" s="2">
+        <v>84946</v>
       </c>
     </row>
   </sheetData>
@@ -14441,9 +14766,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C941E7-90B0-442F-AD33-BF86CD637602}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
@@ -16272,6 +16597,149 @@
         <v>1823</v>
       </c>
     </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B176">
+        <v>13</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B178">
+        <v>13</v>
+      </c>
+      <c r="C178" s="2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16280,10 +16748,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27ACE1C-5B78-4231-82E4-395ECBDB675E}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19136,6 +19604,227 @@
       </c>
       <c r="E168" s="2">
         <v>1849</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B169">
+        <v>135</v>
+      </c>
+      <c r="C169">
+        <v>162</v>
+      </c>
+      <c r="D169" s="2">
+        <v>6566</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B170">
+        <v>138</v>
+      </c>
+      <c r="C170">
+        <v>134</v>
+      </c>
+      <c r="D170" s="2">
+        <v>6592</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B171">
+        <v>138</v>
+      </c>
+      <c r="C171">
+        <v>136</v>
+      </c>
+      <c r="D171" s="2">
+        <v>6635</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B172">
+        <v>133</v>
+      </c>
+      <c r="C172">
+        <v>146</v>
+      </c>
+      <c r="D172" s="2">
+        <v>6676</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B173">
+        <v>143</v>
+      </c>
+      <c r="C173">
+        <v>141</v>
+      </c>
+      <c r="D173" s="2">
+        <v>6719</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B174">
+        <v>136</v>
+      </c>
+      <c r="C174">
+        <v>139</v>
+      </c>
+      <c r="D174" s="2">
+        <v>6743</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B175">
+        <v>135</v>
+      </c>
+      <c r="C175">
+        <v>122</v>
+      </c>
+      <c r="D175" s="2">
+        <v>6760</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B176">
+        <v>137</v>
+      </c>
+      <c r="C176">
+        <v>126</v>
+      </c>
+      <c r="D176" s="2">
+        <v>6792</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B177">
+        <v>138</v>
+      </c>
+      <c r="C177">
+        <v>119</v>
+      </c>
+      <c r="D177" s="2">
+        <v>6830</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B178">
+        <v>139</v>
+      </c>
+      <c r="C178">
+        <v>114</v>
+      </c>
+      <c r="D178" s="2">
+        <v>6863</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B179">
+        <v>140</v>
+      </c>
+      <c r="C179">
+        <v>107</v>
+      </c>
+      <c r="D179" s="2">
+        <v>6899</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B180">
+        <v>136</v>
+      </c>
+      <c r="C180">
+        <v>105</v>
+      </c>
+      <c r="D180" s="2">
+        <v>6931</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B181">
+        <v>135</v>
+      </c>
+      <c r="C181">
+        <v>98</v>
+      </c>
+      <c r="D181" s="2">
+        <v>6954</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1965</v>
       </c>
     </row>
   </sheetData>
@@ -19149,7 +19838,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C23"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19170,7 +19859,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>1524</v>
+        <v>1699</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -19181,7 +19870,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>1428</v>
+        <v>1608</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -19192,7 +19881,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>2151</v>
+        <v>2426</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19203,7 +19892,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>6754</v>
+        <v>7863</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19214,7 +19903,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>10128</v>
+        <v>11558</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -19225,7 +19914,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="2">
-        <v>7678</v>
+        <v>8451</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -19236,7 +19925,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="2">
-        <v>7119</v>
+        <v>7747</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -19247,7 +19936,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>6412</v>
+        <v>6977</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -19258,7 +19947,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>5640</v>
+        <v>6198</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -19269,10 +19958,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>5297</v>
+        <v>5878</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19280,10 +19969,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="2">
-        <v>5189</v>
+        <v>5785</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19291,10 +19980,10 @@
         <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>4587</v>
+        <v>5056</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19302,10 +19991,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="2">
-        <v>3463</v>
+        <v>3882</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19313,10 +20002,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>2302</v>
+        <v>2546</v>
       </c>
       <c r="C15">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19324,10 +20013,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>1735</v>
+        <v>1928</v>
       </c>
       <c r="C16">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19335,10 +20024,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>1387</v>
+        <v>1533</v>
       </c>
       <c r="C17">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19346,10 +20035,10 @@
         <v>36</v>
       </c>
       <c r="B18" s="2">
-        <v>1239</v>
+        <v>1345</v>
       </c>
       <c r="C18">
-        <v>297</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19357,10 +20046,10 @@
         <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>1086</v>
+        <v>1161</v>
       </c>
       <c r="C19">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19368,10 +20057,10 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>802</v>
+        <v>849</v>
       </c>
       <c r="C20">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19379,10 +20068,10 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C21">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19390,10 +20079,10 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19401,7 +20090,7 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -19436,7 +20125,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2">
-        <v>39170</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19444,7 +20133,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2">
-        <v>36642</v>
+        <v>40715</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19452,7 +20141,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19460,7 +20149,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -19474,7 +20163,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19495,10 +20184,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2">
-        <v>33469</v>
+        <v>38992</v>
       </c>
       <c r="C2" s="2">
-        <v>1405</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19506,10 +20195,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="2">
-        <v>15109</v>
+        <v>15944</v>
       </c>
       <c r="C3">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19517,10 +20206,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2">
-        <v>4292</v>
+        <v>4659</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19528,10 +20217,10 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19539,7 +20228,7 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -19549,11 +20238,11 @@
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
-        <v>959</v>
+      <c r="B7" s="2">
+        <v>1082</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19561,7 +20250,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="2">
-        <v>1334</v>
+        <v>1447</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -19572,10 +20261,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="2">
-        <v>13254</v>
+        <v>14032</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -19583,10 +20272,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="2">
-        <v>7198</v>
+        <v>7972</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -19618,7 +20307,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="2">
-        <v>6278</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19626,7 +20315,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="2">
-        <v>10181</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19634,7 +20323,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>842</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19642,7 +20331,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>273</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19650,7 +20339,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2">
-        <v>2666</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19658,7 +20347,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="2">
-        <v>7072</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19666,7 +20355,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="2">
-        <v>17399</v>
+        <v>19578</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19674,7 +20363,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="2">
-        <v>19580</v>
+        <v>21920</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -19682,7 +20371,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="2">
-        <v>12064</v>
+        <v>13176</v>
       </c>
     </row>
   </sheetData>
